--- a/ClientApp/src/assets/decode.xlsx
+++ b/ClientApp/src/assets/decode.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H695535\telsor\ClientApp\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A0BC325-84CB-4258-AC31-F7883F2558B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{195304C5-7121-42EE-97EA-26BF7D0F4005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1695" windowWidth="38700" windowHeight="15435"/>
+    <workbookView xWindow="2145" yWindow="4215" windowWidth="28800" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="decode" sheetId="1" r:id="rId1"/>
+    <sheet name="2023-04-all-l" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -70,6 +70,12 @@
     <t>Pojmenování služby</t>
   </si>
   <si>
+    <t>Business ISDN2 - provolba</t>
+  </si>
+  <si>
+    <t>Business ISDN30 - provolba</t>
+  </si>
+  <si>
     <t>VARIO profil Voice</t>
   </si>
   <si>
@@ -539,12 +545,6 @@
   </si>
   <si>
     <t>Maria Nelly Fučelová Rozmanitová</t>
-  </si>
-  <si>
-    <t>Business ISDN2 - provolba</t>
-  </si>
-  <si>
-    <t>Business ISDN30 - provolba</t>
   </si>
   <si>
     <t>Brzobohatý Dušan</t>
@@ -1435,9 +1435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1493,6368 +1491,6359 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B2">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="E2">
-        <v>15.7</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="M2">
-        <v>15.7</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B3">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C3">
-        <v>5904662502</v>
-      </c>
-      <c r="D3">
-        <v>601052999</v>
+        <v>5903422220</v>
       </c>
       <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>4.21</v>
+        <v>2313.5100000000002</v>
       </c>
       <c r="M3">
-        <v>34.21</v>
+        <v>2313.5100000000002</v>
       </c>
       <c r="N3">
-        <v>41.39</v>
+        <v>2799.35</v>
       </c>
       <c r="O3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B4">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C4">
-        <v>5902937022</v>
+        <v>5903422220</v>
       </c>
       <c r="D4">
-        <v>601062161</v>
+        <v>55477364</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="H4">
-        <v>1.93</v>
+        <v>28.61</v>
       </c>
       <c r="M4">
-        <v>31.93</v>
+        <v>117.61</v>
       </c>
       <c r="N4">
-        <v>38.64</v>
+        <v>142.31</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
       </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B5">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C5">
-        <v>5903189153</v>
+        <v>5903422220</v>
       </c>
       <c r="D5">
-        <v>601083719</v>
+        <v>55477365</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>89</v>
+      </c>
+      <c r="H5">
+        <v>2.37</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>91.37</v>
       </c>
       <c r="N5">
-        <v>36.299999999999997</v>
+        <v>110.56</v>
       </c>
       <c r="O5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B6">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C6">
-        <v>5902935310</v>
+        <v>5903422220</v>
       </c>
       <c r="D6">
-        <v>601084649</v>
+        <v>55477366</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>89</v>
+      </c>
+      <c r="H6">
+        <v>5.08</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>94.08</v>
       </c>
       <c r="N6">
-        <v>36.299999999999997</v>
+        <v>113.84</v>
       </c>
       <c r="O6" t="s">
         <v>16</v>
       </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B7">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C7">
-        <v>5904201911</v>
+        <v>5903422220</v>
       </c>
       <c r="D7">
-        <v>601084660</v>
+        <v>55477367</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>89</v>
+      </c>
+      <c r="H7">
+        <v>1.01</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>90.01</v>
       </c>
       <c r="N7">
-        <v>36.299999999999997</v>
+        <v>108.91</v>
       </c>
       <c r="O7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B8">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C8">
-        <v>5900717082</v>
+        <v>5903422220</v>
       </c>
       <c r="D8">
-        <v>601084943</v>
+        <v>55477368</v>
       </c>
       <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="H8">
-        <v>8.3800000000000008</v>
+        <v>89</v>
       </c>
       <c r="M8">
-        <v>38.380000000000003</v>
+        <v>89</v>
       </c>
       <c r="N8">
-        <v>46.44</v>
+        <v>107.69</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
       </c>
-      <c r="P8" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B9">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C9">
-        <v>5904759142</v>
-      </c>
-      <c r="D9">
-        <v>601086226</v>
+        <v>5903645154</v>
       </c>
       <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>3568.1</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>3568.1</v>
       </c>
       <c r="N9">
-        <v>36.299999999999997</v>
+        <v>4317.3999999999996</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B10">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C10">
-        <v>5903890532</v>
+        <v>5903645154</v>
       </c>
       <c r="D10">
-        <v>601086227</v>
+        <v>5547901</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>819.56</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>1218.56</v>
       </c>
       <c r="N10">
-        <v>36.299999999999997</v>
+        <v>1474.46</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B11">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C11">
-        <v>5902635821</v>
+        <v>5903645154</v>
       </c>
       <c r="D11">
-        <v>601131988</v>
+        <v>5547902</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>171.25</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>570.25</v>
       </c>
       <c r="N11">
-        <v>36.299999999999997</v>
+        <v>690</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B12">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C12">
-        <v>5902386092</v>
+        <v>5903645154</v>
       </c>
       <c r="D12">
-        <v>601159983</v>
+        <v>5547903</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>399</v>
+      </c>
+      <c r="H12">
+        <v>26.3</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>425.3</v>
       </c>
       <c r="N12">
-        <v>36.299999999999997</v>
+        <v>514.61</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5221371179</v>
+        <v>5224892047</v>
       </c>
       <c r="B13">
-        <v>3605241996</v>
+        <v>700002097</v>
       </c>
       <c r="C13">
-        <v>5901304142</v>
+        <v>5903645154</v>
       </c>
       <c r="D13">
-        <v>601159984</v>
+        <v>5547904</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>399</v>
       </c>
       <c r="H13">
-        <v>196.74</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="M13">
-        <v>226.74</v>
+        <v>416.67</v>
       </c>
       <c r="N13">
-        <v>274.36</v>
+        <v>504.17</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B14">
         <v>3605241996</v>
       </c>
-      <c r="C14">
-        <v>252631178</v>
-      </c>
-      <c r="D14">
-        <v>601202248</v>
-      </c>
       <c r="E14">
-        <v>30</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="N14">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O14" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B15">
         <v>3605241996</v>
       </c>
       <c r="C15">
-        <v>252631153</v>
+        <v>5904662502</v>
       </c>
       <c r="D15">
-        <v>601202249</v>
+        <v>601052999</v>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H15">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="M15">
-        <v>33.75</v>
+        <v>38.83</v>
       </c>
       <c r="N15">
-        <v>40.840000000000003</v>
+        <v>46.98</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B16">
         <v>3605241996</v>
       </c>
       <c r="C16">
+        <v>5902937022</v>
+      </c>
+      <c r="D16">
+        <v>601062161</v>
+      </c>
+      <c r="E16">
+        <v>34.53</v>
+      </c>
+      <c r="H16">
+        <v>0.86</v>
+      </c>
+      <c r="M16">
+        <v>35.39</v>
+      </c>
+      <c r="N16">
+        <v>42.82</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5224875924</v>
+      </c>
+      <c r="B17">
+        <v>3605241996</v>
+      </c>
+      <c r="C17">
+        <v>5903189153</v>
+      </c>
+      <c r="D17">
+        <v>601083719</v>
+      </c>
+      <c r="E17">
+        <v>34.53</v>
+      </c>
+      <c r="M17">
+        <v>34.53</v>
+      </c>
+      <c r="N17">
+        <v>41.78</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5224875924</v>
+      </c>
+      <c r="B18">
+        <v>3605241996</v>
+      </c>
+      <c r="C18">
+        <v>5902935310</v>
+      </c>
+      <c r="D18">
+        <v>601084649</v>
+      </c>
+      <c r="E18">
+        <v>34.53</v>
+      </c>
+      <c r="M18">
+        <v>34.53</v>
+      </c>
+      <c r="N18">
+        <v>41.78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5224875924</v>
+      </c>
+      <c r="B19">
+        <v>3605241996</v>
+      </c>
+      <c r="C19">
+        <v>5904201911</v>
+      </c>
+      <c r="D19">
+        <v>601084660</v>
+      </c>
+      <c r="E19">
+        <v>34.53</v>
+      </c>
+      <c r="M19">
+        <v>34.53</v>
+      </c>
+      <c r="N19">
+        <v>41.78</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5224875924</v>
+      </c>
+      <c r="B20">
+        <v>3605241996</v>
+      </c>
+      <c r="C20">
+        <v>5900717082</v>
+      </c>
+      <c r="D20">
+        <v>601084943</v>
+      </c>
+      <c r="E20">
+        <v>34.53</v>
+      </c>
+      <c r="H20">
+        <v>13.17</v>
+      </c>
+      <c r="M20">
+        <v>47.7</v>
+      </c>
+      <c r="N20">
+        <v>57.72</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5224875924</v>
+      </c>
+      <c r="B21">
+        <v>3605241996</v>
+      </c>
+      <c r="C21">
+        <v>5904759142</v>
+      </c>
+      <c r="D21">
+        <v>601086226</v>
+      </c>
+      <c r="E21">
+        <v>34.53</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>34.53</v>
+      </c>
+      <c r="N21">
+        <v>41.78</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5224875924</v>
+      </c>
+      <c r="B22">
+        <v>3605241996</v>
+      </c>
+      <c r="C22">
+        <v>5903890532</v>
+      </c>
+      <c r="D22">
+        <v>601086227</v>
+      </c>
+      <c r="E22">
+        <v>34.53</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>34.53</v>
+      </c>
+      <c r="N22">
+        <v>41.78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5224875924</v>
+      </c>
+      <c r="B23">
+        <v>3605241996</v>
+      </c>
+      <c r="C23">
+        <v>5902635821</v>
+      </c>
+      <c r="D23">
+        <v>601131988</v>
+      </c>
+      <c r="E23">
+        <v>34.53</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>34.53</v>
+      </c>
+      <c r="N23">
+        <v>41.78</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5224875924</v>
+      </c>
+      <c r="B24">
+        <v>3605241996</v>
+      </c>
+      <c r="C24">
+        <v>5902386092</v>
+      </c>
+      <c r="D24">
+        <v>601159983</v>
+      </c>
+      <c r="E24">
+        <v>34.53</v>
+      </c>
+      <c r="M24">
+        <v>34.53</v>
+      </c>
+      <c r="N24">
+        <v>41.78</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5224875924</v>
+      </c>
+      <c r="B25">
+        <v>3605241996</v>
+      </c>
+      <c r="C25">
+        <v>5901304142</v>
+      </c>
+      <c r="D25">
+        <v>601159984</v>
+      </c>
+      <c r="E25">
+        <v>34.53</v>
+      </c>
+      <c r="H25">
+        <v>55.93</v>
+      </c>
+      <c r="M25">
+        <v>90.46</v>
+      </c>
+      <c r="N25">
+        <v>109.46</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5224875924</v>
+      </c>
+      <c r="B26">
+        <v>3605241996</v>
+      </c>
+      <c r="C26">
+        <v>252631178</v>
+      </c>
+      <c r="D26">
+        <v>601202248</v>
+      </c>
+      <c r="E26">
+        <v>34.53</v>
+      </c>
+      <c r="M26">
+        <v>34.53</v>
+      </c>
+      <c r="N26">
+        <v>41.78</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5224875924</v>
+      </c>
+      <c r="B27">
+        <v>3605241996</v>
+      </c>
+      <c r="C27">
+        <v>252631153</v>
+      </c>
+      <c r="D27">
+        <v>601202249</v>
+      </c>
+      <c r="E27">
+        <v>34.53</v>
+      </c>
+      <c r="H27">
+        <v>5.16</v>
+      </c>
+      <c r="M27">
+        <v>39.69</v>
+      </c>
+      <c r="N27">
+        <v>48.02</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5224875924</v>
+      </c>
+      <c r="B28">
+        <v>3605241996</v>
+      </c>
+      <c r="C28">
         <v>252631155</v>
       </c>
-      <c r="D16">
+      <c r="D28">
         <v>601202250</v>
       </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5221371179</v>
-      </c>
-      <c r="B17">
-        <v>3605241996</v>
-      </c>
-      <c r="C17">
+      <c r="E28">
+        <v>34.53</v>
+      </c>
+      <c r="M28">
+        <v>34.53</v>
+      </c>
+      <c r="N28">
+        <v>41.78</v>
+      </c>
+      <c r="O28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5224875924</v>
+      </c>
+      <c r="B29">
+        <v>3605241996</v>
+      </c>
+      <c r="C29">
         <v>252631154</v>
       </c>
-      <c r="D17">
+      <c r="D29">
         <v>601202251</v>
       </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="M17">
-        <v>30</v>
-      </c>
-      <c r="N17">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5221371179</v>
-      </c>
-      <c r="B18">
-        <v>3605241996</v>
-      </c>
-      <c r="C18">
+      <c r="E29">
+        <v>34.53</v>
+      </c>
+      <c r="M29">
+        <v>34.53</v>
+      </c>
+      <c r="N29">
+        <v>41.78</v>
+      </c>
+      <c r="O29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5224875924</v>
+      </c>
+      <c r="B30">
+        <v>3605241996</v>
+      </c>
+      <c r="C30">
         <v>252631158</v>
       </c>
-      <c r="D18">
+      <c r="D30">
         <v>601202252</v>
       </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5221371179</v>
-      </c>
-      <c r="B19">
-        <v>3605241996</v>
-      </c>
-      <c r="C19">
+      <c r="E30">
+        <v>34.53</v>
+      </c>
+      <c r="M30">
+        <v>34.53</v>
+      </c>
+      <c r="N30">
+        <v>41.78</v>
+      </c>
+      <c r="O30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5224875924</v>
+      </c>
+      <c r="B31">
+        <v>3605241996</v>
+      </c>
+      <c r="C31">
         <v>252631156</v>
       </c>
-      <c r="D19">
+      <c r="D31">
         <v>601202253</v>
       </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="M19">
-        <v>30</v>
-      </c>
-      <c r="N19">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5221371179</v>
-      </c>
-      <c r="B20">
-        <v>3605241996</v>
-      </c>
-      <c r="C20">
+      <c r="E31">
+        <v>34.53</v>
+      </c>
+      <c r="M31">
+        <v>34.53</v>
+      </c>
+      <c r="N31">
+        <v>41.78</v>
+      </c>
+      <c r="O31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5224875924</v>
+      </c>
+      <c r="B32">
+        <v>3605241996</v>
+      </c>
+      <c r="C32">
         <v>252631157</v>
       </c>
-      <c r="D20">
+      <c r="D32">
         <v>601202254</v>
       </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="M20">
-        <v>30</v>
-      </c>
-      <c r="N20">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5221371179</v>
-      </c>
-      <c r="B21">
-        <v>3605241996</v>
-      </c>
-      <c r="C21">
+      <c r="E32">
+        <v>34.53</v>
+      </c>
+      <c r="M32">
+        <v>34.53</v>
+      </c>
+      <c r="N32">
+        <v>41.78</v>
+      </c>
+      <c r="O32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5224875924</v>
+      </c>
+      <c r="B33">
+        <v>3605241996</v>
+      </c>
+      <c r="C33">
         <v>252631159</v>
       </c>
-      <c r="D21">
+      <c r="D33">
         <v>601202255</v>
       </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="H21">
-        <v>14.06</v>
-      </c>
-      <c r="M21">
-        <v>44.06</v>
-      </c>
-      <c r="N21">
-        <v>53.31</v>
-      </c>
-      <c r="O21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5221371179</v>
-      </c>
-      <c r="B22">
-        <v>3605241996</v>
-      </c>
-      <c r="C22">
+      <c r="E33">
+        <v>34.53</v>
+      </c>
+      <c r="H33">
+        <v>31.87</v>
+      </c>
+      <c r="M33">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="N33">
+        <v>80.34</v>
+      </c>
+      <c r="O33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5224875924</v>
+      </c>
+      <c r="B34">
+        <v>3605241996</v>
+      </c>
+      <c r="C34">
         <v>252631161</v>
       </c>
-      <c r="D22">
+      <c r="D34">
         <v>601202256</v>
       </c>
-      <c r="E22">
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <v>50.61</v>
-      </c>
-      <c r="M22">
-        <v>80.61</v>
-      </c>
-      <c r="N22">
-        <v>97.54</v>
-      </c>
-      <c r="O22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>5221371179</v>
-      </c>
-      <c r="B23">
-        <v>3605241996</v>
-      </c>
-      <c r="C23">
+      <c r="E34">
+        <v>34.53</v>
+      </c>
+      <c r="H34">
+        <v>18.55</v>
+      </c>
+      <c r="M34">
+        <v>53.08</v>
+      </c>
+      <c r="N34">
+        <v>64.23</v>
+      </c>
+      <c r="O34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5224875924</v>
+      </c>
+      <c r="B35">
+        <v>3605241996</v>
+      </c>
+      <c r="C35">
         <v>252631160</v>
       </c>
-      <c r="D23">
+      <c r="D35">
         <v>601202257</v>
       </c>
-      <c r="E23">
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>5221371179</v>
-      </c>
-      <c r="B24">
-        <v>3605241996</v>
-      </c>
-      <c r="C24">
+      <c r="E35">
+        <v>34.53</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>34.53</v>
+      </c>
+      <c r="N35">
+        <v>41.78</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5224875924</v>
+      </c>
+      <c r="B36">
+        <v>3605241996</v>
+      </c>
+      <c r="C36">
         <v>252631162</v>
       </c>
-      <c r="D24">
+      <c r="D36">
         <v>601202258</v>
       </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <v>11.57</v>
-      </c>
-      <c r="M24">
-        <v>41.57</v>
-      </c>
-      <c r="N24">
-        <v>50.3</v>
-      </c>
-      <c r="O24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>5221371179</v>
-      </c>
-      <c r="B25">
-        <v>3605241996</v>
-      </c>
-      <c r="C25">
+      <c r="E36">
+        <v>34.53</v>
+      </c>
+      <c r="H36">
+        <v>7.47</v>
+      </c>
+      <c r="M36">
+        <v>42</v>
+      </c>
+      <c r="N36">
+        <v>50.82</v>
+      </c>
+      <c r="O36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5224875924</v>
+      </c>
+      <c r="B37">
+        <v>3605241996</v>
+      </c>
+      <c r="C37">
         <v>252631179</v>
       </c>
-      <c r="D25">
+      <c r="D37">
         <v>601202259</v>
       </c>
-      <c r="E25">
-        <v>30</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>30</v>
-      </c>
-      <c r="N25">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>5221371179</v>
-      </c>
-      <c r="B26">
-        <v>3605241996</v>
-      </c>
-      <c r="C26">
+      <c r="E37">
+        <v>34.53</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>34.53</v>
+      </c>
+      <c r="N37">
+        <v>41.78</v>
+      </c>
+      <c r="O37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5224875924</v>
+      </c>
+      <c r="B38">
+        <v>3605241996</v>
+      </c>
+      <c r="C38">
         <v>252631180</v>
       </c>
-      <c r="D26">
+      <c r="D38">
         <v>601202260</v>
       </c>
-      <c r="E26">
-        <v>30</v>
-      </c>
-      <c r="M26">
-        <v>30</v>
-      </c>
-      <c r="N26">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>5221371179</v>
-      </c>
-      <c r="B27">
-        <v>3605241996</v>
-      </c>
-      <c r="C27">
+      <c r="E38">
+        <v>34.53</v>
+      </c>
+      <c r="M38">
+        <v>34.53</v>
+      </c>
+      <c r="N38">
+        <v>41.78</v>
+      </c>
+      <c r="O38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5224875924</v>
+      </c>
+      <c r="B39">
+        <v>3605241996</v>
+      </c>
+      <c r="C39">
         <v>252631181</v>
       </c>
-      <c r="D27">
+      <c r="D39">
         <v>601202261</v>
       </c>
-      <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="H27">
-        <v>0.75</v>
-      </c>
-      <c r="M27">
-        <v>30.75</v>
-      </c>
-      <c r="N27">
-        <v>37.21</v>
-      </c>
-      <c r="O27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>5221371179</v>
-      </c>
-      <c r="B28">
-        <v>3605241996</v>
-      </c>
-      <c r="C28">
+      <c r="E39">
+        <v>34.53</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>34.53</v>
+      </c>
+      <c r="N39">
+        <v>41.78</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5224875924</v>
+      </c>
+      <c r="B40">
+        <v>3605241996</v>
+      </c>
+      <c r="C40">
         <v>252631164</v>
       </c>
-      <c r="D28">
+      <c r="D40">
         <v>601202262</v>
       </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="M28">
-        <v>30</v>
-      </c>
-      <c r="N28">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5221371179</v>
-      </c>
-      <c r="B29">
-        <v>3605241996</v>
-      </c>
-      <c r="C29">
+      <c r="E40">
+        <v>34.53</v>
+      </c>
+      <c r="M40">
+        <v>34.53</v>
+      </c>
+      <c r="N40">
+        <v>41.78</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5224875924</v>
+      </c>
+      <c r="B41">
+        <v>3605241996</v>
+      </c>
+      <c r="C41">
         <v>252631163</v>
       </c>
-      <c r="D29">
+      <c r="D41">
         <v>601202263</v>
       </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="M29">
-        <v>30</v>
-      </c>
-      <c r="N29">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>5221371179</v>
-      </c>
-      <c r="B30">
-        <v>3605241996</v>
-      </c>
-      <c r="C30">
+      <c r="E41">
+        <v>34.53</v>
+      </c>
+      <c r="M41">
+        <v>34.53</v>
+      </c>
+      <c r="N41">
+        <v>41.78</v>
+      </c>
+      <c r="O41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5224875924</v>
+      </c>
+      <c r="B42">
+        <v>3605241996</v>
+      </c>
+      <c r="C42">
         <v>252631166</v>
       </c>
-      <c r="D30">
+      <c r="D42">
         <v>601202264</v>
       </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="M30">
-        <v>30</v>
-      </c>
-      <c r="N30">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>5221371179</v>
-      </c>
-      <c r="B31">
-        <v>3605241996</v>
-      </c>
-      <c r="C31">
+      <c r="E42">
+        <v>34.53</v>
+      </c>
+      <c r="M42">
+        <v>34.53</v>
+      </c>
+      <c r="N42">
+        <v>41.78</v>
+      </c>
+      <c r="O42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5224875924</v>
+      </c>
+      <c r="B43">
+        <v>3605241996</v>
+      </c>
+      <c r="C43">
         <v>252631167</v>
       </c>
-      <c r="D31">
+      <c r="D43">
         <v>601202265</v>
       </c>
-      <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="M31">
-        <v>30</v>
-      </c>
-      <c r="N31">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5221371179</v>
-      </c>
-      <c r="B32">
-        <v>3605241996</v>
-      </c>
-      <c r="C32">
+      <c r="E43">
+        <v>34.53</v>
+      </c>
+      <c r="M43">
+        <v>34.53</v>
+      </c>
+      <c r="N43">
+        <v>41.78</v>
+      </c>
+      <c r="O43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5224875924</v>
+      </c>
+      <c r="B44">
+        <v>3605241996</v>
+      </c>
+      <c r="C44">
         <v>253401257</v>
       </c>
-      <c r="D32">
+      <c r="D44">
         <v>601202266</v>
       </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="M32">
-        <v>30</v>
-      </c>
-      <c r="N32">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>5221371179</v>
-      </c>
-      <c r="B33">
-        <v>3605241996</v>
-      </c>
-      <c r="C33">
+      <c r="E44">
+        <v>34.53</v>
+      </c>
+      <c r="M44">
+        <v>34.53</v>
+      </c>
+      <c r="N44">
+        <v>41.78</v>
+      </c>
+      <c r="O44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5224875924</v>
+      </c>
+      <c r="B45">
+        <v>3605241996</v>
+      </c>
+      <c r="C45">
         <v>253564829</v>
       </c>
-      <c r="D33">
+      <c r="D45">
         <v>601202267</v>
       </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>30</v>
-      </c>
-      <c r="N33">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>5221371179</v>
-      </c>
-      <c r="B34">
-        <v>3605241996</v>
-      </c>
-      <c r="C34">
+      <c r="E45">
+        <v>34.53</v>
+      </c>
+      <c r="M45">
+        <v>34.53</v>
+      </c>
+      <c r="N45">
+        <v>41.78</v>
+      </c>
+      <c r="O45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5224875924</v>
+      </c>
+      <c r="B46">
+        <v>3605241996</v>
+      </c>
+      <c r="C46">
         <v>255024312</v>
       </c>
-      <c r="D34">
+      <c r="D46">
         <v>601202269</v>
       </c>
-      <c r="E34">
-        <v>30</v>
-      </c>
-      <c r="H34">
-        <v>30.07</v>
-      </c>
-      <c r="M34">
-        <v>60.07</v>
-      </c>
-      <c r="N34">
-        <v>72.680000000000007</v>
-      </c>
-      <c r="O34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>5221371179</v>
-      </c>
-      <c r="B35">
-        <v>3605241996</v>
-      </c>
-      <c r="C35">
+      <c r="E46">
+        <v>34.53</v>
+      </c>
+      <c r="H46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M46">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="N46">
+        <v>47.95</v>
+      </c>
+      <c r="O46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5224875924</v>
+      </c>
+      <c r="B47">
+        <v>3605241996</v>
+      </c>
+      <c r="C47">
         <v>255024292</v>
       </c>
-      <c r="D35">
+      <c r="D47">
         <v>601202270</v>
       </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="H35">
-        <v>12.73</v>
-      </c>
-      <c r="M35">
-        <v>42.73</v>
-      </c>
-      <c r="N35">
-        <v>51.7</v>
-      </c>
-      <c r="O35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>5221371179</v>
-      </c>
-      <c r="B36">
-        <v>3605241996</v>
-      </c>
-      <c r="C36">
+      <c r="E47">
+        <v>34.53</v>
+      </c>
+      <c r="M47">
+        <v>34.53</v>
+      </c>
+      <c r="N47">
+        <v>41.78</v>
+      </c>
+      <c r="O47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5224875924</v>
+      </c>
+      <c r="B48">
+        <v>3605241996</v>
+      </c>
+      <c r="C48">
         <v>255024278</v>
       </c>
-      <c r="D36">
+      <c r="D48">
         <v>601202271</v>
       </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="H36">
-        <v>21.18</v>
-      </c>
-      <c r="M36">
-        <v>51.18</v>
-      </c>
-      <c r="N36">
-        <v>61.93</v>
-      </c>
-      <c r="O36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>5221371179</v>
-      </c>
-      <c r="B37">
-        <v>3605241996</v>
-      </c>
-      <c r="C37">
-        <v>255024268</v>
-      </c>
-      <c r="D37">
-        <v>601202272</v>
-      </c>
-      <c r="E37">
-        <v>225</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>225</v>
-      </c>
-      <c r="N37">
-        <v>272.25</v>
-      </c>
-      <c r="O37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>5221371179</v>
-      </c>
-      <c r="B38">
-        <v>3605241996</v>
-      </c>
-      <c r="C38">
-        <v>5901673480</v>
-      </c>
-      <c r="D38">
-        <v>601353873</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="H38">
-        <v>1.5</v>
-      </c>
-      <c r="M38">
-        <v>31.5</v>
-      </c>
-      <c r="N38">
-        <v>38.119999999999997</v>
-      </c>
-      <c r="O38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>5221371179</v>
-      </c>
-      <c r="B39">
-        <v>3605241996</v>
-      </c>
-      <c r="C39">
-        <v>5901446796</v>
-      </c>
-      <c r="D39">
-        <v>601353902</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="H39">
-        <v>0.75</v>
-      </c>
-      <c r="M39">
-        <v>30.75</v>
-      </c>
-      <c r="N39">
-        <v>37.21</v>
-      </c>
-      <c r="O39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>5221371179</v>
-      </c>
-      <c r="B40">
-        <v>3605241996</v>
-      </c>
-      <c r="C40">
-        <v>5903493584</v>
-      </c>
-      <c r="D40">
-        <v>602101297</v>
-      </c>
-      <c r="E40">
-        <v>30</v>
-      </c>
-      <c r="H40">
-        <v>24.02</v>
-      </c>
-      <c r="M40">
-        <v>54.02</v>
-      </c>
-      <c r="N40">
-        <v>65.36</v>
-      </c>
-      <c r="O40" t="s">
-        <v>16</v>
-      </c>
-      <c r="P40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>5221371179</v>
-      </c>
-      <c r="B41">
-        <v>3605241996</v>
-      </c>
-      <c r="C41">
-        <v>5904511383</v>
-      </c>
-      <c r="D41">
-        <v>602117682</v>
-      </c>
-      <c r="E41">
-        <v>30</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>30</v>
-      </c>
-      <c r="N41">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O41" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>5221371179</v>
-      </c>
-      <c r="B42">
-        <v>3605241996</v>
-      </c>
-      <c r="C42">
-        <v>257997399</v>
-      </c>
-      <c r="D42">
-        <v>602123279</v>
-      </c>
-      <c r="E42">
-        <v>259</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>259</v>
-      </c>
-      <c r="N42">
-        <v>313.39</v>
-      </c>
-      <c r="O42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>5221371179</v>
-      </c>
-      <c r="B43">
-        <v>3605241996</v>
-      </c>
-      <c r="C43">
-        <v>5905144422</v>
-      </c>
-      <c r="D43">
-        <v>602131465</v>
-      </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
-      <c r="H43">
-        <v>1.5</v>
-      </c>
-      <c r="M43">
-        <v>31.5</v>
-      </c>
-      <c r="N43">
-        <v>38.119999999999997</v>
-      </c>
-      <c r="O43" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>5221371179</v>
-      </c>
-      <c r="B44">
-        <v>3605241996</v>
-      </c>
-      <c r="C44">
-        <v>5904506344</v>
-      </c>
-      <c r="D44">
-        <v>602135230</v>
-      </c>
-      <c r="E44">
-        <v>259</v>
-      </c>
-      <c r="H44">
-        <v>12.9</v>
-      </c>
-      <c r="M44">
-        <v>271.89999999999998</v>
-      </c>
-      <c r="N44">
-        <v>329</v>
-      </c>
-      <c r="O44" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>5221371179</v>
-      </c>
-      <c r="B45">
-        <v>3605241996</v>
-      </c>
-      <c r="C45">
-        <v>5901710859</v>
-      </c>
-      <c r="D45">
-        <v>602144941</v>
-      </c>
-      <c r="E45">
-        <v>30</v>
-      </c>
-      <c r="H45">
-        <v>25.16</v>
-      </c>
-      <c r="M45">
-        <v>55.16</v>
-      </c>
-      <c r="N45">
-        <v>66.739999999999995</v>
-      </c>
-      <c r="O45" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>5221371179</v>
-      </c>
-      <c r="B46">
-        <v>3605241996</v>
-      </c>
-      <c r="C46">
-        <v>5902161688</v>
-      </c>
-      <c r="D46">
-        <v>602171318</v>
-      </c>
-      <c r="E46">
-        <v>259</v>
-      </c>
-      <c r="H46">
-        <v>3.9</v>
-      </c>
-      <c r="M46">
-        <v>262.89999999999998</v>
-      </c>
-      <c r="N46">
-        <v>318.11</v>
-      </c>
-      <c r="O46" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>5221371179</v>
-      </c>
-      <c r="B47">
-        <v>3605241996</v>
-      </c>
-      <c r="C47">
-        <v>5902761730</v>
-      </c>
-      <c r="D47">
-        <v>602171526</v>
-      </c>
-      <c r="E47">
-        <v>259</v>
-      </c>
-      <c r="H47">
-        <v>19.5</v>
-      </c>
-      <c r="M47">
-        <v>278.5</v>
-      </c>
-      <c r="N47">
-        <v>336.99</v>
-      </c>
-      <c r="O47" t="s">
-        <v>33</v>
-      </c>
-      <c r="P47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>5221371179</v>
-      </c>
-      <c r="B48">
-        <v>3605241996</v>
-      </c>
-      <c r="C48">
-        <v>260351527</v>
-      </c>
-      <c r="D48">
-        <v>602256439</v>
-      </c>
       <c r="E48">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>17.66</v>
       </c>
       <c r="M48">
-        <v>259</v>
+        <v>52.19</v>
       </c>
       <c r="N48">
-        <v>313.39</v>
+        <v>63.15</v>
       </c>
       <c r="O48" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B49">
         <v>3605241996</v>
       </c>
       <c r="C49">
-        <v>5901284903</v>
+        <v>255024268</v>
       </c>
       <c r="D49">
-        <v>602405911</v>
+        <v>601202272</v>
       </c>
       <c r="E49">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="N49">
+        <v>313.35000000000002</v>
+      </c>
+      <c r="O49" t="s">
         <v>30</v>
-      </c>
-      <c r="M49">
-        <v>30</v>
-      </c>
-      <c r="N49">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="O49" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B50">
         <v>3605241996</v>
       </c>
       <c r="C50">
-        <v>5904105104</v>
+        <v>5901673480</v>
       </c>
       <c r="D50">
-        <v>602533156</v>
+        <v>601353873</v>
       </c>
       <c r="E50">
-        <v>225</v>
+        <v>34.53</v>
       </c>
       <c r="H50">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>228.9</v>
+        <v>34.53</v>
       </c>
       <c r="N50">
-        <v>276.97000000000003</v>
+        <v>41.78</v>
       </c>
       <c r="O50" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="P50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B51">
         <v>3605241996</v>
       </c>
       <c r="C51">
-        <v>5903026504</v>
+        <v>5901446796</v>
       </c>
       <c r="D51">
-        <v>602535579</v>
+        <v>601353902</v>
       </c>
       <c r="E51">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N51">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P51" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B52">
         <v>3605241996</v>
       </c>
       <c r="C52">
-        <v>5903551980</v>
+        <v>5903493584</v>
       </c>
       <c r="D52">
-        <v>602535588</v>
+        <v>602101297</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>20.64</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>55.17</v>
       </c>
       <c r="N52">
-        <v>36.299999999999997</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="O52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P52" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B53">
         <v>3605241996</v>
       </c>
       <c r="C53">
-        <v>5903113492</v>
+        <v>5904511383</v>
       </c>
       <c r="D53">
-        <v>602535594</v>
+        <v>602117682</v>
       </c>
       <c r="E53">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N53">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P53" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B54">
         <v>3605241996</v>
       </c>
       <c r="C54">
-        <v>5903581004</v>
+        <v>257997399</v>
       </c>
       <c r="D54">
-        <v>602535672</v>
+        <v>602123279</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N54">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O54" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B55">
         <v>3605241996</v>
       </c>
       <c r="C55">
-        <v>5904422182</v>
+        <v>5905144422</v>
       </c>
       <c r="D55">
-        <v>602535686</v>
+        <v>602131465</v>
       </c>
       <c r="E55">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H55">
-        <v>1.5</v>
+        <v>2.91</v>
       </c>
       <c r="M55">
-        <v>31.5</v>
+        <v>37.44</v>
       </c>
       <c r="N55">
-        <v>38.119999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="O55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B56">
         <v>3605241996</v>
       </c>
       <c r="C56">
-        <v>5903813188</v>
+        <v>5904506344</v>
       </c>
       <c r="D56">
-        <v>602535689</v>
+        <v>602135230</v>
       </c>
       <c r="E56">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N56">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O56" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B57">
         <v>3605241996</v>
       </c>
       <c r="C57">
-        <v>5901539140</v>
+        <v>5901710859</v>
       </c>
       <c r="D57">
-        <v>602535690</v>
+        <v>602144941</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>27.08</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>61.61</v>
       </c>
       <c r="N57">
-        <v>36.299999999999997</v>
+        <v>74.55</v>
       </c>
       <c r="O57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B58">
         <v>3605241996</v>
       </c>
       <c r="C58">
-        <v>5901903620</v>
+        <v>5902161688</v>
       </c>
       <c r="D58">
-        <v>602535694</v>
+        <v>602171318</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H58">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>32.25</v>
+        <v>298.11</v>
       </c>
       <c r="N58">
-        <v>39.020000000000003</v>
+        <v>360.71</v>
       </c>
       <c r="O58" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P58" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B59">
         <v>3605241996</v>
       </c>
       <c r="C59">
-        <v>5903329553</v>
+        <v>5902761730</v>
       </c>
       <c r="D59">
-        <v>602535702</v>
+        <v>602171526</v>
       </c>
       <c r="E59">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N59">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O59" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B60">
         <v>3605241996</v>
       </c>
       <c r="C60">
-        <v>5902737089</v>
+        <v>260351527</v>
       </c>
       <c r="D60">
-        <v>602535711</v>
+        <v>602256439</v>
       </c>
       <c r="E60">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>302.01</v>
       </c>
       <c r="N60">
-        <v>36.299999999999997</v>
+        <v>365.43</v>
       </c>
       <c r="O60" t="s">
-        <v>16</v>
-      </c>
-      <c r="P60" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B61">
         <v>3605241996</v>
       </c>
       <c r="C61">
-        <v>5902060153</v>
+        <v>5901284903</v>
       </c>
       <c r="D61">
-        <v>602554218</v>
+        <v>602405911</v>
       </c>
       <c r="E61">
-        <v>30</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M61">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N61">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P61" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B62">
         <v>3605241996</v>
       </c>
       <c r="C62">
-        <v>5901279101</v>
+        <v>5904105104</v>
       </c>
       <c r="D62">
-        <v>602555351</v>
+        <v>602533156</v>
       </c>
       <c r="E62">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>258.97000000000003</v>
+      </c>
+      <c r="N62">
+        <v>313.35000000000002</v>
+      </c>
+      <c r="O62" t="s">
         <v>30</v>
       </c>
-      <c r="H62">
-        <v>0.75</v>
-      </c>
-      <c r="M62">
-        <v>30.75</v>
-      </c>
-      <c r="N62">
-        <v>37.21</v>
-      </c>
-      <c r="O62" t="s">
-        <v>16</v>
-      </c>
       <c r="P62" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B63">
         <v>3605241996</v>
       </c>
       <c r="C63">
-        <v>5903463696</v>
+        <v>5903026504</v>
       </c>
       <c r="D63">
-        <v>602568116</v>
+        <v>602535579</v>
       </c>
       <c r="E63">
-        <v>259</v>
-      </c>
-      <c r="H63">
-        <v>54.3</v>
+        <v>34.53</v>
       </c>
       <c r="M63">
-        <v>313.3</v>
+        <v>34.53</v>
       </c>
       <c r="N63">
-        <v>379.09</v>
+        <v>41.78</v>
       </c>
       <c r="O63" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P63" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B64">
         <v>3605241996</v>
       </c>
       <c r="C64">
-        <v>5902749934</v>
+        <v>5903551980</v>
       </c>
       <c r="D64">
-        <v>602568117</v>
+        <v>602535588</v>
       </c>
       <c r="E64">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H64">
-        <v>37.979999999999997</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>296.98</v>
+        <v>34.53</v>
       </c>
       <c r="N64">
-        <v>359.35</v>
+        <v>41.78</v>
       </c>
       <c r="O64" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P64" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B65">
         <v>3605241996</v>
       </c>
       <c r="C65">
-        <v>5903342450</v>
+        <v>5903113492</v>
       </c>
       <c r="D65">
-        <v>602593661</v>
+        <v>602535594</v>
       </c>
       <c r="E65">
-        <v>259</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M65">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N65">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O65" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P65" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B66">
         <v>3605241996</v>
       </c>
       <c r="C66">
-        <v>5902516177</v>
+        <v>5903581004</v>
       </c>
       <c r="D66">
-        <v>602593674</v>
+        <v>602535672</v>
       </c>
       <c r="E66">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="M66">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N66">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O66" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P66" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B67">
         <v>3605241996</v>
       </c>
       <c r="C67">
-        <v>5903120766</v>
+        <v>5904422182</v>
       </c>
       <c r="D67">
-        <v>602593675</v>
+        <v>602535686</v>
       </c>
       <c r="E67">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="M67">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N67">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O67" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P67" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B68">
         <v>3605241996</v>
       </c>
       <c r="C68">
-        <v>259413191</v>
+        <v>5903813188</v>
       </c>
       <c r="D68">
-        <v>602653817</v>
+        <v>602535689</v>
       </c>
       <c r="E68">
-        <v>30</v>
-      </c>
-      <c r="H68">
-        <v>34.5</v>
+        <v>34.53</v>
       </c>
       <c r="M68">
-        <v>64.5</v>
+        <v>34.53</v>
       </c>
       <c r="N68">
-        <v>78.05</v>
+        <v>41.78</v>
       </c>
       <c r="O68" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P68" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B69">
         <v>3605241996</v>
       </c>
       <c r="C69">
-        <v>5903267315</v>
+        <v>5901539140</v>
       </c>
       <c r="D69">
-        <v>602704492</v>
+        <v>602535690</v>
       </c>
       <c r="E69">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H69">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>262.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N69">
-        <v>318.11</v>
+        <v>41.78</v>
       </c>
       <c r="O69" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P69" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B70">
         <v>3605241996</v>
       </c>
       <c r="C70">
-        <v>5901718522</v>
+        <v>5901903620</v>
       </c>
       <c r="D70">
-        <v>602712404</v>
+        <v>602535694</v>
       </c>
       <c r="E70">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H70">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M70">
-        <v>262.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N70">
-        <v>318.11</v>
+        <v>41.78</v>
       </c>
       <c r="O70" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P70" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B71">
         <v>3605241996</v>
       </c>
       <c r="C71">
-        <v>5902304368</v>
+        <v>5903329553</v>
       </c>
       <c r="D71">
-        <v>602740793</v>
+        <v>602535702</v>
       </c>
       <c r="E71">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="M71">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N71">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P71" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B72">
         <v>3605241996</v>
       </c>
       <c r="C72">
-        <v>5903303908</v>
+        <v>5902737089</v>
       </c>
       <c r="D72">
-        <v>602756582</v>
+        <v>602535711</v>
       </c>
       <c r="E72">
-        <v>259</v>
-      </c>
-      <c r="H72">
-        <v>3</v>
+        <v>34.53</v>
       </c>
       <c r="M72">
-        <v>262</v>
+        <v>34.53</v>
       </c>
       <c r="N72">
-        <v>317.02</v>
+        <v>41.78</v>
       </c>
       <c r="O72" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P72" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B73">
         <v>3605241996</v>
       </c>
       <c r="C73">
-        <v>5903705211</v>
+        <v>5902060153</v>
       </c>
       <c r="D73">
-        <v>602796645</v>
+        <v>602554218</v>
       </c>
       <c r="E73">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H73">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>262.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N73">
-        <v>318.11</v>
+        <v>41.78</v>
       </c>
       <c r="O73" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P73" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B74">
         <v>3605241996</v>
       </c>
       <c r="C74">
-        <v>5902005137</v>
+        <v>5901279101</v>
       </c>
       <c r="D74">
-        <v>606074174</v>
+        <v>602555351</v>
       </c>
       <c r="E74">
-        <v>259</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
+        <v>34.53</v>
       </c>
       <c r="H74">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="M74">
-        <v>270.5</v>
+        <v>34.53</v>
       </c>
       <c r="N74">
-        <v>327.31</v>
+        <v>41.78</v>
       </c>
       <c r="O74" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P74" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B75">
         <v>3605241996</v>
       </c>
       <c r="C75">
-        <v>5901502745</v>
+        <v>5903463696</v>
       </c>
       <c r="D75">
-        <v>606074486</v>
+        <v>602568116</v>
       </c>
       <c r="E75">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>110.31</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>408.42</v>
       </c>
       <c r="N75">
-        <v>36.299999999999997</v>
+        <v>494.19</v>
       </c>
       <c r="O75" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P75" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B76">
         <v>3605241996</v>
       </c>
       <c r="C76">
-        <v>5903491072</v>
+        <v>5902749934</v>
       </c>
       <c r="D76">
-        <v>606099590</v>
+        <v>602568117</v>
       </c>
       <c r="E76">
-        <v>319</v>
+        <v>298.11</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>22.49</v>
       </c>
       <c r="M76">
-        <v>319</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="N76">
-        <v>385.99</v>
+        <v>387.93</v>
       </c>
       <c r="O76" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="P76" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B77">
         <v>3605241996</v>
       </c>
       <c r="C77">
-        <v>5904604712</v>
+        <v>5903342450</v>
       </c>
       <c r="D77">
-        <v>606614753</v>
+        <v>602593661</v>
       </c>
       <c r="E77">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H77">
+        <v>3.9</v>
       </c>
       <c r="M77">
-        <v>30</v>
+        <v>302.01</v>
       </c>
       <c r="N77">
-        <v>36.299999999999997</v>
+        <v>365.43</v>
       </c>
       <c r="O77" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P77" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B78">
         <v>3605241996</v>
       </c>
       <c r="C78">
-        <v>5901506985</v>
+        <v>5902516177</v>
       </c>
       <c r="D78">
-        <v>606620603</v>
+        <v>602593674</v>
       </c>
       <c r="E78">
-        <v>599</v>
+        <v>298.11</v>
       </c>
       <c r="H78">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="M78">
-        <v>630.5</v>
+        <v>298.11</v>
       </c>
       <c r="N78">
-        <v>762.91</v>
+        <v>360.71</v>
       </c>
       <c r="O78" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="P78" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B79">
         <v>3605241996</v>
       </c>
       <c r="C79">
-        <v>5901923851</v>
+        <v>5903120766</v>
       </c>
       <c r="D79">
-        <v>606680914</v>
+        <v>602593675</v>
       </c>
       <c r="E79">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N79">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O79" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P79" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B80">
         <v>3605241996</v>
       </c>
       <c r="C80">
-        <v>5904649084</v>
+        <v>259413191</v>
       </c>
       <c r="D80">
-        <v>606680926</v>
+        <v>602653817</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H80">
+        <v>3.44</v>
       </c>
       <c r="M80">
-        <v>30</v>
+        <v>37.97</v>
       </c>
       <c r="N80">
-        <v>36.299999999999997</v>
+        <v>45.94</v>
       </c>
       <c r="O80" t="s">
-        <v>16</v>
-      </c>
-      <c r="P80" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B81">
         <v>3605241996</v>
       </c>
       <c r="C81">
-        <v>5901043376</v>
+        <v>5903267315</v>
       </c>
       <c r="D81">
-        <v>606739303</v>
+        <v>602704492</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H81">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>33.75</v>
+        <v>298.11</v>
       </c>
       <c r="N81">
-        <v>40.840000000000003</v>
+        <v>360.71</v>
       </c>
       <c r="O81" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P81" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B82">
         <v>3605241996</v>
       </c>
       <c r="C82">
-        <v>5903242406</v>
+        <v>5901718522</v>
       </c>
       <c r="D82">
-        <v>606740690</v>
+        <v>602712404</v>
       </c>
       <c r="E82">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="M82">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N82">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O82" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P82" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B83">
         <v>3605241996</v>
       </c>
       <c r="C83">
-        <v>5902931132</v>
+        <v>5902304368</v>
       </c>
       <c r="D83">
-        <v>606764635</v>
+        <v>602740793</v>
       </c>
       <c r="E83">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="M83">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N83">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P83" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B84">
         <v>3605241996</v>
       </c>
       <c r="C84">
-        <v>255228103</v>
+        <v>5903303908</v>
       </c>
       <c r="D84">
-        <v>607020409</v>
+        <v>602756582</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="M84">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N84">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O84" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="P84" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B85">
         <v>3605241996</v>
       </c>
       <c r="C85">
-        <v>5903761000</v>
+        <v>5903705211</v>
       </c>
       <c r="D85">
-        <v>607076253</v>
+        <v>602796645</v>
       </c>
       <c r="E85">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="M85">
-        <v>30</v>
+        <v>317.61</v>
       </c>
       <c r="N85">
-        <v>36.299999999999997</v>
+        <v>384.31</v>
       </c>
       <c r="O85" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P85" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B86">
         <v>3605241996</v>
       </c>
       <c r="C86">
-        <v>5903911743</v>
+        <v>5902005137</v>
       </c>
       <c r="D86">
-        <v>607076256</v>
+        <v>606074174</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="M86">
-        <v>30</v>
+        <v>309.36</v>
       </c>
       <c r="N86">
-        <v>36.299999999999997</v>
+        <v>374.33</v>
       </c>
       <c r="O86" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P86" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B87">
         <v>3605241996</v>
       </c>
       <c r="C87">
-        <v>5900824919</v>
+        <v>5901502745</v>
       </c>
       <c r="D87">
-        <v>607076271</v>
+        <v>606074486</v>
       </c>
       <c r="E87">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N87">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P87" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B88">
         <v>3605241996</v>
       </c>
       <c r="C88">
-        <v>255882586</v>
+        <v>5903491072</v>
       </c>
       <c r="D88">
-        <v>607077747</v>
+        <v>606099590</v>
       </c>
       <c r="E88">
-        <v>259</v>
+        <v>367.17</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
+      <c r="L88">
+        <v>40</v>
+      </c>
       <c r="M88">
-        <v>259</v>
+        <v>407.17</v>
       </c>
       <c r="N88">
-        <v>313.39</v>
+        <v>484.28</v>
       </c>
       <c r="O88" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="P88" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B89">
         <v>3605241996</v>
       </c>
       <c r="C89">
-        <v>5905158235</v>
+        <v>5904604712</v>
       </c>
       <c r="D89">
-        <v>607082672</v>
+        <v>606614753</v>
       </c>
       <c r="E89">
-        <v>30</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M89">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N89">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P89" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B90">
         <v>3605241996</v>
       </c>
       <c r="C90">
-        <v>5901943661</v>
+        <v>5901506985</v>
       </c>
       <c r="D90">
-        <v>607082684</v>
+        <v>606620603</v>
       </c>
       <c r="E90">
-        <v>30</v>
+        <v>689.45</v>
       </c>
       <c r="H90">
-        <v>62.39</v>
+        <v>21.38</v>
       </c>
       <c r="M90">
-        <v>92.39</v>
+        <v>710.83</v>
       </c>
       <c r="N90">
-        <v>111.79</v>
+        <v>860.1</v>
       </c>
       <c r="O90" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="P90" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B91">
         <v>3605241996</v>
       </c>
       <c r="C91">
-        <v>5904117177</v>
+        <v>5901923851</v>
       </c>
       <c r="D91">
-        <v>607088749</v>
+        <v>606680914</v>
       </c>
       <c r="E91">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H91">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>31.5</v>
+        <v>34.53</v>
       </c>
       <c r="N91">
-        <v>38.119999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P91" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B92">
         <v>3605241996</v>
       </c>
       <c r="C92">
-        <v>5902761653</v>
+        <v>5904649084</v>
       </c>
       <c r="D92">
-        <v>702031510</v>
+        <v>606680926</v>
       </c>
       <c r="E92">
-        <v>259</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M92">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N92">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O92" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P92" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B93">
         <v>3605241996</v>
       </c>
       <c r="C93">
-        <v>5903174026</v>
+        <v>5901043376</v>
       </c>
       <c r="D93">
-        <v>702150861</v>
+        <v>606739303</v>
       </c>
       <c r="E93">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M93">
-        <v>30</v>
+        <v>38.83</v>
       </c>
       <c r="N93">
-        <v>36.299999999999997</v>
+        <v>46.98</v>
       </c>
       <c r="O93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P93" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B94">
         <v>3605241996</v>
       </c>
       <c r="C94">
-        <v>5902614845</v>
+        <v>5903242406</v>
       </c>
       <c r="D94">
-        <v>702150862</v>
+        <v>606740690</v>
       </c>
       <c r="E94">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H94">
+        <v>0.86</v>
       </c>
       <c r="M94">
-        <v>30</v>
+        <v>35.39</v>
       </c>
       <c r="N94">
-        <v>36.299999999999997</v>
+        <v>42.82</v>
       </c>
       <c r="O94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P94" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B95">
         <v>3605241996</v>
       </c>
       <c r="C95">
-        <v>5901051628</v>
+        <v>5902931132</v>
       </c>
       <c r="D95">
-        <v>702152022</v>
+        <v>606764635</v>
       </c>
       <c r="E95">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H95">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="M95">
-        <v>33.75</v>
+        <v>34.53</v>
       </c>
       <c r="N95">
-        <v>40.840000000000003</v>
+        <v>41.78</v>
       </c>
       <c r="O95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P95" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B96">
         <v>3605241996</v>
       </c>
       <c r="C96">
-        <v>5901857911</v>
+        <v>255228103</v>
       </c>
       <c r="D96">
-        <v>702214596</v>
+        <v>607020409</v>
       </c>
       <c r="E96">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N96">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O96" t="s">
-        <v>33</v>
-      </c>
-      <c r="P96" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B97">
         <v>3605241996</v>
       </c>
       <c r="C97">
-        <v>250635511</v>
+        <v>5903761000</v>
       </c>
       <c r="D97">
-        <v>702226079</v>
+        <v>607076253</v>
       </c>
       <c r="E97">
-        <v>259</v>
+        <v>34.53</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N97">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O97" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P97" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B98">
         <v>3605241996</v>
       </c>
       <c r="C98">
-        <v>251623614</v>
+        <v>5903911743</v>
       </c>
       <c r="D98">
-        <v>702239983</v>
+        <v>607076256</v>
       </c>
       <c r="E98">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H98">
-        <v>3.91</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>33.909999999999997</v>
+        <v>34.53</v>
       </c>
       <c r="N98">
-        <v>41.03</v>
+        <v>41.78</v>
       </c>
       <c r="O98" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P98" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B99">
         <v>3605241996</v>
       </c>
       <c r="C99">
-        <v>252519514</v>
+        <v>5900824919</v>
       </c>
       <c r="D99">
-        <v>702252610</v>
+        <v>607076271</v>
       </c>
       <c r="E99">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="M99">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N99">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O99" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P99" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B100">
         <v>3605241996</v>
       </c>
       <c r="C100">
-        <v>5903457610</v>
+        <v>255882586</v>
       </c>
       <c r="D100">
-        <v>702282758</v>
+        <v>607077747</v>
       </c>
       <c r="E100">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N100">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O100" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B101">
         <v>3605241996</v>
       </c>
       <c r="C101">
-        <v>5902254533</v>
+        <v>5905158235</v>
       </c>
       <c r="D101">
-        <v>721242080</v>
+        <v>607082672</v>
       </c>
       <c r="E101">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H101">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M101">
-        <v>30.75</v>
+        <v>34.53</v>
       </c>
       <c r="N101">
-        <v>37.21</v>
+        <v>41.78</v>
       </c>
       <c r="O101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P101" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B102">
         <v>3605241996</v>
       </c>
       <c r="C102">
-        <v>5904759913</v>
+        <v>5901943661</v>
       </c>
       <c r="D102">
-        <v>724060975</v>
+        <v>607082684</v>
       </c>
       <c r="E102">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>64.44</v>
       </c>
       <c r="M102">
-        <v>30</v>
+        <v>98.97</v>
       </c>
       <c r="N102">
-        <v>36.299999999999997</v>
+        <v>119.75</v>
       </c>
       <c r="O102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P102" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B103">
         <v>3605241996</v>
       </c>
       <c r="C103">
-        <v>5902207111</v>
+        <v>5904117177</v>
       </c>
       <c r="D103">
-        <v>724060976</v>
+        <v>607088749</v>
       </c>
       <c r="E103">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H103">
-        <v>61.22</v>
+        <v>0</v>
       </c>
       <c r="M103">
-        <v>91.22</v>
+        <v>34.53</v>
       </c>
       <c r="N103">
-        <v>110.38</v>
+        <v>41.78</v>
       </c>
       <c r="O103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P103" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B104">
         <v>3605241996</v>
       </c>
       <c r="C104">
-        <v>5901675350</v>
+        <v>5902761653</v>
       </c>
       <c r="D104">
-        <v>724140240</v>
+        <v>702031510</v>
       </c>
       <c r="E104">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H104">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M104">
-        <v>271</v>
+        <v>298.11</v>
       </c>
       <c r="N104">
-        <v>327.91</v>
+        <v>360.71</v>
       </c>
       <c r="O104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P104" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B105">
         <v>3605241996</v>
       </c>
       <c r="C105">
-        <v>5903447643</v>
+        <v>5903174026</v>
       </c>
       <c r="D105">
-        <v>724140243</v>
+        <v>702150861</v>
       </c>
       <c r="E105">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H105">
-        <v>22.26</v>
+        <v>0.86</v>
       </c>
       <c r="M105">
-        <v>52.26</v>
+        <v>35.39</v>
       </c>
       <c r="N105">
-        <v>63.23</v>
+        <v>42.82</v>
       </c>
       <c r="O105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P105" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B106">
         <v>3605241996</v>
       </c>
       <c r="C106">
-        <v>5903870155</v>
+        <v>5902614845</v>
       </c>
       <c r="D106">
-        <v>724148404</v>
+        <v>702150862</v>
       </c>
       <c r="E106">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N106">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O106" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P106" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B107">
         <v>3605241996</v>
       </c>
       <c r="C107">
-        <v>5903122769</v>
+        <v>5901051628</v>
       </c>
       <c r="D107">
-        <v>724148617</v>
+        <v>702152022</v>
       </c>
       <c r="E107">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H107">
-        <v>1.2</v>
+        <v>6.15</v>
       </c>
       <c r="M107">
-        <v>31.2</v>
+        <v>40.68</v>
       </c>
       <c r="N107">
-        <v>37.75</v>
+        <v>49.22</v>
       </c>
       <c r="O107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P107" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B108">
         <v>3605241996</v>
       </c>
       <c r="C108">
-        <v>5902822101</v>
+        <v>5901857911</v>
       </c>
       <c r="D108">
-        <v>724148618</v>
+        <v>702214596</v>
       </c>
       <c r="E108">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H108">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="M108">
-        <v>266.8</v>
+        <v>298.11</v>
       </c>
       <c r="N108">
-        <v>322.83</v>
+        <v>360.71</v>
       </c>
       <c r="O108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P108" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B109">
         <v>3605241996</v>
       </c>
       <c r="C109">
-        <v>5902046909</v>
+        <v>250635511</v>
       </c>
       <c r="D109">
-        <v>724158567</v>
+        <v>702226079</v>
       </c>
       <c r="E109">
-        <v>259</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
+        <v>298.11</v>
       </c>
       <c r="M109">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="N109">
-        <v>313.39</v>
+        <v>360.71</v>
       </c>
       <c r="O109" t="s">
-        <v>33</v>
-      </c>
-      <c r="P109" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B110">
         <v>3605241996</v>
       </c>
       <c r="C110">
-        <v>5902930882</v>
+        <v>251623614</v>
       </c>
       <c r="D110">
-        <v>724164663</v>
+        <v>702239983</v>
       </c>
       <c r="E110">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="M110">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N110">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O110" t="s">
-        <v>33</v>
-      </c>
-      <c r="P110" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B111">
         <v>3605241996</v>
       </c>
       <c r="C111">
-        <v>5903468741</v>
+        <v>252519514</v>
       </c>
       <c r="D111">
-        <v>724167180</v>
+        <v>702252610</v>
       </c>
       <c r="E111">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="M111">
-        <v>30</v>
+        <v>325.41000000000003</v>
       </c>
       <c r="N111">
-        <v>36.299999999999997</v>
+        <v>393.75</v>
       </c>
       <c r="O111" t="s">
-        <v>16</v>
-      </c>
-      <c r="P111" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B112">
         <v>3605241996</v>
       </c>
       <c r="C112">
-        <v>255024331</v>
+        <v>5903457610</v>
       </c>
       <c r="D112">
-        <v>724168549</v>
+        <v>702282758</v>
       </c>
       <c r="E112">
-        <v>259</v>
-      </c>
-      <c r="H112">
-        <v>24.9</v>
+        <v>34.53</v>
       </c>
       <c r="M112">
-        <v>283.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N112">
-        <v>343.52</v>
+        <v>41.78</v>
       </c>
       <c r="O112" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P112" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B113">
         <v>3605241996</v>
       </c>
       <c r="C113">
-        <v>5903517296</v>
+        <v>5902254533</v>
       </c>
       <c r="D113">
-        <v>724172074</v>
+        <v>721242080</v>
       </c>
       <c r="E113">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="M113">
-        <v>259</v>
+        <v>35.39</v>
       </c>
       <c r="N113">
-        <v>313.39</v>
+        <v>42.82</v>
       </c>
       <c r="O113" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P113" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B114">
         <v>3605241996</v>
       </c>
       <c r="C114">
-        <v>5902542388</v>
+        <v>5904759913</v>
       </c>
       <c r="D114">
-        <v>724219273</v>
+        <v>724060975</v>
       </c>
       <c r="E114">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H114">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M114">
-        <v>262.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N114">
-        <v>318.11</v>
+        <v>41.78</v>
       </c>
       <c r="O114" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P114" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B115">
         <v>3605241996</v>
       </c>
       <c r="C115">
-        <v>5904403913</v>
+        <v>5902207111</v>
       </c>
       <c r="D115">
-        <v>724253964</v>
+        <v>724060976</v>
       </c>
       <c r="E115">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H115">
-        <v>78.28</v>
+        <v>52.13</v>
       </c>
       <c r="M115">
-        <v>108.28</v>
+        <v>86.66</v>
       </c>
       <c r="N115">
-        <v>131.02000000000001</v>
+        <v>104.86</v>
       </c>
       <c r="O115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P115" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B116">
         <v>3605241996</v>
       </c>
       <c r="C116">
-        <v>5904860216</v>
+        <v>5901675350</v>
       </c>
       <c r="D116">
-        <v>724263460</v>
+        <v>724140240</v>
       </c>
       <c r="E116">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H116">
-        <v>12.75</v>
+        <v>38.97</v>
       </c>
       <c r="M116">
-        <v>42.75</v>
+        <v>337.08</v>
       </c>
       <c r="N116">
-        <v>51.73</v>
+        <v>407.87</v>
       </c>
       <c r="O116" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P116" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B117">
         <v>3605241996</v>
       </c>
       <c r="C117">
-        <v>270453441</v>
+        <v>5903447643</v>
       </c>
       <c r="D117">
-        <v>724266291</v>
+        <v>724140243</v>
       </c>
       <c r="E117">
-        <v>68.36</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
+        <v>34.53</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>21.41</v>
       </c>
       <c r="M117">
-        <v>69.36</v>
+        <v>55.94</v>
       </c>
       <c r="N117">
-        <v>83.93</v>
+        <v>67.69</v>
       </c>
       <c r="O117" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="P117" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B118">
         <v>3605241996</v>
       </c>
       <c r="C118">
-        <v>5902278841</v>
+        <v>5903870155</v>
       </c>
       <c r="D118">
-        <v>724267701</v>
+        <v>724148404</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M118">
-        <v>33</v>
+        <v>298.11</v>
       </c>
       <c r="N118">
-        <v>39.93</v>
+        <v>360.71</v>
       </c>
       <c r="O118" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P118" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B119">
         <v>3605241996</v>
       </c>
       <c r="C119">
-        <v>5904019019</v>
+        <v>5903122769</v>
       </c>
       <c r="D119">
-        <v>724267798</v>
+        <v>724148617</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H119">
+        <v>3.44</v>
       </c>
       <c r="M119">
-        <v>30</v>
+        <v>37.97</v>
       </c>
       <c r="N119">
-        <v>36.299999999999997</v>
+        <v>45.94</v>
       </c>
       <c r="O119" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P119" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B120">
         <v>3605241996</v>
       </c>
       <c r="C120">
-        <v>5901353586</v>
+        <v>5902822101</v>
       </c>
       <c r="D120">
-        <v>724283384</v>
+        <v>724148618</v>
       </c>
       <c r="E120">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="M120">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N120">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O120" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P120" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B121">
         <v>3605241996</v>
       </c>
       <c r="C121">
-        <v>5904924293</v>
+        <v>5902046909</v>
       </c>
       <c r="D121">
-        <v>724334584</v>
+        <v>724158567</v>
       </c>
       <c r="E121">
-        <v>319</v>
+        <v>298.11</v>
       </c>
       <c r="H121">
-        <v>467.4</v>
+        <v>0</v>
       </c>
       <c r="M121">
-        <v>786.4</v>
+        <v>298.11</v>
       </c>
       <c r="N121">
-        <v>951.54</v>
+        <v>360.71</v>
       </c>
       <c r="O121" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="P121" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B122">
         <v>3605241996</v>
       </c>
       <c r="C122">
-        <v>5901344836</v>
+        <v>5902930882</v>
       </c>
       <c r="D122">
-        <v>724371357</v>
+        <v>724164663</v>
       </c>
       <c r="E122">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H122">
-        <v>11.04</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>41.04</v>
+        <v>298.11</v>
       </c>
       <c r="N122">
-        <v>49.66</v>
+        <v>360.71</v>
       </c>
       <c r="O122" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P122" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B123">
         <v>3605241996</v>
       </c>
       <c r="C123">
-        <v>5901499246</v>
+        <v>5903468741</v>
       </c>
       <c r="D123">
-        <v>724371358</v>
+        <v>724167180</v>
       </c>
       <c r="E123">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="M123">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N123">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O123" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P123" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B124">
         <v>3605241996</v>
       </c>
       <c r="C124">
-        <v>5901497765</v>
+        <v>255024331</v>
       </c>
       <c r="D124">
-        <v>724371359</v>
+        <v>724168549</v>
       </c>
       <c r="E124">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H124">
-        <v>8.25</v>
+        <v>308.38</v>
       </c>
       <c r="M124">
-        <v>38.25</v>
+        <v>606.49</v>
       </c>
       <c r="N124">
-        <v>46.28</v>
+        <v>733.85</v>
       </c>
       <c r="O124" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P124" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B125">
         <v>3605241996</v>
       </c>
       <c r="C125">
-        <v>5901978315</v>
+        <v>5903517296</v>
       </c>
       <c r="D125">
-        <v>724372063</v>
+        <v>724172074</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H125">
+        <v>11.7</v>
       </c>
       <c r="M125">
-        <v>30</v>
+        <v>309.81</v>
       </c>
       <c r="N125">
-        <v>36.299999999999997</v>
+        <v>374.87</v>
       </c>
       <c r="O125" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P125" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B126">
         <v>3605241996</v>
       </c>
       <c r="C126">
-        <v>5901905682</v>
+        <v>5902542388</v>
       </c>
       <c r="D126">
-        <v>724372083</v>
+        <v>724219273</v>
       </c>
       <c r="E126">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="M126">
-        <v>259</v>
+        <v>317.61</v>
       </c>
       <c r="N126">
-        <v>313.39</v>
+        <v>384.31</v>
       </c>
       <c r="O126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P126" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B127">
         <v>3605241996</v>
       </c>
       <c r="C127">
-        <v>5901321882</v>
+        <v>5904403913</v>
       </c>
       <c r="D127">
-        <v>724383622</v>
+        <v>724253964</v>
       </c>
       <c r="E127">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H127">
+        <v>55.25</v>
       </c>
       <c r="M127">
-        <v>30</v>
+        <v>89.78</v>
       </c>
       <c r="N127">
-        <v>36.299999999999997</v>
+        <v>108.63</v>
       </c>
       <c r="O127" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P127" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B128">
         <v>3605241996</v>
       </c>
       <c r="C128">
-        <v>5902594982</v>
+        <v>5904860216</v>
       </c>
       <c r="D128">
-        <v>724388840</v>
+        <v>724263460</v>
       </c>
       <c r="E128">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N128">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P128" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B129">
         <v>3605241996</v>
       </c>
       <c r="C129">
-        <v>5901943030</v>
+        <v>270453441</v>
       </c>
       <c r="D129">
-        <v>724392017</v>
+        <v>724266291</v>
       </c>
       <c r="E129">
-        <v>30</v>
+        <v>367.17</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>30</v>
+        <v>367.17</v>
       </c>
       <c r="N129">
-        <v>36.299999999999997</v>
+        <v>444.28</v>
       </c>
       <c r="O129" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="P129" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B130">
         <v>3605241996</v>
       </c>
       <c r="C130">
-        <v>5903352812</v>
+        <v>5902278841</v>
       </c>
       <c r="D130">
-        <v>724392018</v>
+        <v>724267701</v>
       </c>
       <c r="E130">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="M130">
-        <v>30</v>
+        <v>36.25</v>
       </c>
       <c r="N130">
-        <v>36.299999999999997</v>
+        <v>43.86</v>
       </c>
       <c r="O130" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P130" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B131">
         <v>3605241996</v>
       </c>
       <c r="C131">
-        <v>5903708854</v>
+        <v>5904019019</v>
       </c>
       <c r="D131">
-        <v>724476161</v>
+        <v>724267798</v>
       </c>
       <c r="E131">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="M131">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N131">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P131" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B132">
         <v>3605241996</v>
       </c>
       <c r="C132">
-        <v>5902384277</v>
+        <v>5901353586</v>
       </c>
       <c r="D132">
-        <v>724622918</v>
+        <v>724283384</v>
       </c>
       <c r="E132">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="M132">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N132">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O132" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P132" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B133">
         <v>3605241996</v>
       </c>
       <c r="C133">
-        <v>5904599309</v>
+        <v>5904924293</v>
       </c>
       <c r="D133">
-        <v>724622919</v>
+        <v>724334584</v>
       </c>
       <c r="E133">
-        <v>259</v>
+        <v>367.17</v>
       </c>
       <c r="H133">
-        <v>11.7</v>
+        <v>18.18</v>
       </c>
       <c r="M133">
-        <v>270.7</v>
+        <v>385.35</v>
       </c>
       <c r="N133">
-        <v>327.55</v>
+        <v>466.27</v>
       </c>
       <c r="O133" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="P133" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B134">
         <v>3605241996</v>
       </c>
       <c r="C134">
-        <v>5902917237</v>
+        <v>5901344836</v>
       </c>
       <c r="D134">
-        <v>724622936</v>
+        <v>724371357</v>
       </c>
       <c r="E134">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H134">
-        <v>74.09</v>
+        <v>13.29</v>
       </c>
       <c r="M134">
-        <v>104.09</v>
+        <v>47.82</v>
       </c>
       <c r="N134">
-        <v>125.95</v>
+        <v>57.86</v>
       </c>
       <c r="O134" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P134" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B135">
         <v>3605241996</v>
       </c>
       <c r="C135">
-        <v>5904858071</v>
+        <v>5901499246</v>
       </c>
       <c r="D135">
-        <v>724760727</v>
+        <v>724371358</v>
       </c>
       <c r="E135">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H135">
-        <v>19.89</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>49.89</v>
+        <v>34.53</v>
       </c>
       <c r="N135">
-        <v>60.37</v>
+        <v>41.78</v>
       </c>
       <c r="O135" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P135" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B136">
         <v>3605241996</v>
       </c>
       <c r="C136">
-        <v>5901320548</v>
+        <v>5901497765</v>
       </c>
       <c r="D136">
-        <v>724826421</v>
+        <v>724371359</v>
       </c>
       <c r="E136">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="M136">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N136">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O136" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P136" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B137">
         <v>3605241996</v>
       </c>
       <c r="C137">
-        <v>5903439612</v>
+        <v>5901978315</v>
       </c>
       <c r="D137">
-        <v>724930473</v>
+        <v>724372063</v>
       </c>
       <c r="E137">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="M137">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N137">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P137" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B138">
         <v>3605241996</v>
       </c>
       <c r="C138">
-        <v>5904488013</v>
+        <v>5901905682</v>
       </c>
       <c r="D138">
-        <v>724930494</v>
+        <v>724372083</v>
       </c>
       <c r="E138">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H138">
-        <v>17.07</v>
+        <v>7.36</v>
       </c>
       <c r="M138">
-        <v>47.07</v>
+        <v>305.47000000000003</v>
       </c>
       <c r="N138">
-        <v>56.95</v>
+        <v>369.62</v>
       </c>
       <c r="O138" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P138" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B139">
         <v>3605241996</v>
       </c>
       <c r="C139">
-        <v>5904804635</v>
+        <v>5901321882</v>
       </c>
       <c r="D139">
-        <v>724934860</v>
+        <v>724383622</v>
       </c>
       <c r="E139">
-        <v>30</v>
-      </c>
-      <c r="H139">
-        <v>0.75</v>
+        <v>34.53</v>
       </c>
       <c r="M139">
-        <v>30.75</v>
+        <v>34.53</v>
       </c>
       <c r="N139">
-        <v>37.21</v>
+        <v>41.78</v>
       </c>
       <c r="O139" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P139" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B140">
         <v>3605241996</v>
       </c>
       <c r="C140">
-        <v>5904381050</v>
+        <v>5902594982</v>
       </c>
       <c r="D140">
-        <v>724935786</v>
+        <v>724388840</v>
       </c>
       <c r="E140">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="M140">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N140">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O140" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P140" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B141">
         <v>3605241996</v>
       </c>
       <c r="C141">
-        <v>5905153216</v>
+        <v>5901943030</v>
       </c>
       <c r="D141">
-        <v>725106103</v>
+        <v>724392017</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
       </c>
       <c r="M141">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N141">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O141" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P141" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B142">
         <v>3605241996</v>
       </c>
       <c r="C142">
-        <v>258499509</v>
+        <v>5903352812</v>
       </c>
       <c r="D142">
-        <v>725144203</v>
+        <v>724392018</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H142">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>30.75</v>
+        <v>34.53</v>
       </c>
       <c r="N142">
-        <v>37.21</v>
+        <v>41.78</v>
       </c>
       <c r="O142" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P142" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B143">
         <v>3605241996</v>
       </c>
       <c r="C143">
-        <v>258499487</v>
+        <v>5903708854</v>
       </c>
       <c r="D143">
-        <v>725168902</v>
+        <v>724476161</v>
       </c>
       <c r="E143">
-        <v>30</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M143">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N143">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O143" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P143" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B144">
         <v>3605241996</v>
       </c>
       <c r="C144">
-        <v>5902196241</v>
+        <v>5902384277</v>
       </c>
       <c r="D144">
-        <v>725180037</v>
+        <v>724622918</v>
       </c>
       <c r="E144">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="M144">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="N144">
-        <v>313.39</v>
+        <v>360.71</v>
       </c>
       <c r="O144" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P144" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B145">
         <v>3605241996</v>
       </c>
       <c r="C145">
-        <v>5903447672</v>
+        <v>5904599309</v>
       </c>
       <c r="D145">
-        <v>725180079</v>
+        <v>724622919</v>
       </c>
       <c r="E145">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H145">
+        <v>99.17</v>
       </c>
       <c r="M145">
-        <v>30</v>
+        <v>397.28</v>
       </c>
       <c r="N145">
-        <v>36.299999999999997</v>
+        <v>480.71</v>
       </c>
       <c r="O145" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P145" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B146">
         <v>3605241996</v>
       </c>
       <c r="C146">
-        <v>5901300207</v>
+        <v>5902917237</v>
       </c>
       <c r="D146">
-        <v>725180089</v>
+        <v>724622936</v>
       </c>
       <c r="E146">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H146">
-        <v>13.58</v>
+        <v>120.87</v>
       </c>
       <c r="M146">
-        <v>43.58</v>
+        <v>155.4</v>
       </c>
       <c r="N146">
-        <v>52.73</v>
+        <v>188.03</v>
       </c>
       <c r="O146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P146" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B147">
         <v>3605241996</v>
       </c>
       <c r="C147">
-        <v>5903902267</v>
+        <v>5904858071</v>
       </c>
       <c r="D147">
-        <v>725318456</v>
+        <v>724760727</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H147">
-        <v>39.03</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="M147">
-        <v>69.03</v>
+        <v>54.34</v>
       </c>
       <c r="N147">
-        <v>83.53</v>
+        <v>65.75</v>
       </c>
       <c r="O147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P147" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B148">
         <v>3605241996</v>
       </c>
       <c r="C148">
-        <v>5904835877</v>
+        <v>5901320548</v>
       </c>
       <c r="D148">
-        <v>725318457</v>
+        <v>724826421</v>
       </c>
       <c r="E148">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H148">
-        <v>7.28</v>
+        <v>0</v>
       </c>
       <c r="M148">
-        <v>37.28</v>
+        <v>34.53</v>
       </c>
       <c r="N148">
-        <v>45.11</v>
+        <v>41.78</v>
       </c>
       <c r="O148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P148" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B149">
         <v>3605241996</v>
       </c>
       <c r="C149">
-        <v>258889846</v>
+        <v>5903439612</v>
       </c>
       <c r="D149">
-        <v>725348796</v>
+        <v>724930473</v>
       </c>
       <c r="E149">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="M149">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N149">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O149" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P149" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B150">
         <v>3605241996</v>
       </c>
       <c r="C150">
-        <v>5905377044</v>
+        <v>5904488013</v>
       </c>
       <c r="D150">
-        <v>725382933</v>
+        <v>724930494</v>
       </c>
       <c r="E150">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>13.99</v>
       </c>
       <c r="M150">
-        <v>30</v>
+        <v>48.52</v>
       </c>
       <c r="N150">
-        <v>36.299999999999997</v>
+        <v>58.71</v>
       </c>
       <c r="O150" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P150" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B151">
         <v>3605241996</v>
       </c>
       <c r="C151">
-        <v>5901325618</v>
+        <v>5904804635</v>
       </c>
       <c r="D151">
-        <v>725382934</v>
+        <v>724934860</v>
       </c>
       <c r="E151">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H151">
+        <v>5.92</v>
       </c>
       <c r="M151">
-        <v>30</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="N151">
-        <v>36.299999999999997</v>
+        <v>48.94</v>
       </c>
       <c r="O151" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P151" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B152">
         <v>3605241996</v>
       </c>
       <c r="C152">
-        <v>5901909444</v>
+        <v>5904381050</v>
       </c>
       <c r="D152">
-        <v>725382935</v>
+        <v>724935786</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H152">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="M152">
-        <v>32.25</v>
+        <v>302.01</v>
       </c>
       <c r="N152">
-        <v>39.020000000000003</v>
+        <v>365.43</v>
       </c>
       <c r="O152" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P152" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B153">
         <v>3605241996</v>
       </c>
       <c r="C153">
-        <v>5901756926</v>
+        <v>5905153216</v>
       </c>
       <c r="D153">
-        <v>725382936</v>
+        <v>725106103</v>
       </c>
       <c r="E153">
-        <v>30</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M153">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N153">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O153" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P153" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B154">
         <v>3605241996</v>
       </c>
       <c r="C154">
-        <v>5901023838</v>
+        <v>258499509</v>
       </c>
       <c r="D154">
-        <v>725382937</v>
+        <v>725144203</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H154">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="M154">
-        <v>30.75</v>
+        <v>34.53</v>
       </c>
       <c r="N154">
-        <v>37.21</v>
+        <v>41.78</v>
       </c>
       <c r="O154" t="s">
-        <v>16</v>
-      </c>
-      <c r="P154" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B155">
         <v>3605241996</v>
       </c>
       <c r="C155">
-        <v>5903715311</v>
+        <v>258499487</v>
       </c>
       <c r="D155">
-        <v>725382938</v>
+        <v>725168902</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H155">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M155">
-        <v>31.5</v>
+        <v>34.53</v>
       </c>
       <c r="N155">
-        <v>38.119999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O155" t="s">
-        <v>16</v>
-      </c>
-      <c r="P155" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B156">
         <v>3605241996</v>
       </c>
       <c r="C156">
-        <v>5903303749</v>
+        <v>5902196241</v>
       </c>
       <c r="D156">
-        <v>725382939</v>
+        <v>725180037</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
       </c>
       <c r="M156">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N156">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O156" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P156" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B157">
         <v>3605241996</v>
       </c>
       <c r="C157">
-        <v>5901554950</v>
+        <v>5903447672</v>
       </c>
       <c r="D157">
-        <v>725382940</v>
+        <v>725180079</v>
       </c>
       <c r="E157">
-        <v>30</v>
-      </c>
-      <c r="H157">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M157">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N157">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O157" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P157" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B158">
         <v>3605241996</v>
       </c>
       <c r="C158">
-        <v>5901772091</v>
+        <v>5901300207</v>
       </c>
       <c r="D158">
-        <v>725382941</v>
+        <v>725180089</v>
       </c>
       <c r="E158">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H158">
-        <v>0.75</v>
+        <v>21.68</v>
       </c>
       <c r="M158">
-        <v>30.75</v>
+        <v>56.21</v>
       </c>
       <c r="N158">
-        <v>37.21</v>
+        <v>68.010000000000005</v>
       </c>
       <c r="O158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P158" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B159">
         <v>3605241996</v>
       </c>
       <c r="C159">
-        <v>5902215642</v>
+        <v>5903902267</v>
       </c>
       <c r="D159">
-        <v>725382943</v>
+        <v>725318456</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H159">
-        <v>2.25</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="M159">
-        <v>32.25</v>
+        <v>52.88</v>
       </c>
       <c r="N159">
-        <v>39.020000000000003</v>
+        <v>63.98</v>
       </c>
       <c r="O159" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P159" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B160">
         <v>3605241996</v>
       </c>
       <c r="C160">
-        <v>5900951094</v>
+        <v>5904835877</v>
       </c>
       <c r="D160">
-        <v>725382944</v>
+        <v>725318457</v>
       </c>
       <c r="E160">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M160">
-        <v>30</v>
+        <v>76.53</v>
       </c>
       <c r="N160">
-        <v>36.299999999999997</v>
+        <v>92.6</v>
       </c>
       <c r="O160" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P160" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B161">
         <v>3605241996</v>
       </c>
       <c r="C161">
-        <v>5904857769</v>
+        <v>258889846</v>
       </c>
       <c r="D161">
-        <v>725382945</v>
+        <v>725348796</v>
       </c>
       <c r="E161">
-        <v>30</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
+        <v>298.11</v>
       </c>
       <c r="M161">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N161">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O161" t="s">
-        <v>16</v>
-      </c>
-      <c r="P161" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B162">
         <v>3605241996</v>
       </c>
       <c r="C162">
-        <v>5904106018</v>
+        <v>5905377044</v>
       </c>
       <c r="D162">
-        <v>725382946</v>
+        <v>725382933</v>
       </c>
       <c r="E162">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="M162">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N162">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O162" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P162" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B163">
         <v>3605241996</v>
       </c>
       <c r="C163">
-        <v>5900698310</v>
+        <v>5901325618</v>
       </c>
       <c r="D163">
-        <v>725382947</v>
+        <v>725382934</v>
       </c>
       <c r="E163">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="M163">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N163">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O163" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P163" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B164">
         <v>3605241996</v>
       </c>
       <c r="C164">
-        <v>5903462456</v>
+        <v>5901909444</v>
       </c>
       <c r="D164">
-        <v>725382948</v>
+        <v>725382935</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
       </c>
       <c r="M164">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N164">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O164" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P164" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B165">
         <v>3605241996</v>
       </c>
       <c r="C165">
-        <v>5904484942</v>
+        <v>5901756926</v>
       </c>
       <c r="D165">
-        <v>725382949</v>
+        <v>725382936</v>
       </c>
       <c r="E165">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="M165">
-        <v>30</v>
+        <v>36.25</v>
       </c>
       <c r="N165">
-        <v>36.299999999999997</v>
+        <v>43.86</v>
       </c>
       <c r="O165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P165" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B166">
         <v>3605241996</v>
       </c>
       <c r="C166">
-        <v>5905398072</v>
+        <v>5901023838</v>
       </c>
       <c r="D166">
-        <v>725382950</v>
+        <v>725382937</v>
       </c>
       <c r="E166">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
       </c>
       <c r="M166">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N166">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O166" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P166" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B167">
         <v>3605241996</v>
       </c>
       <c r="C167">
-        <v>5905346364</v>
+        <v>5903715311</v>
       </c>
       <c r="D167">
-        <v>725382951</v>
+        <v>725382938</v>
       </c>
       <c r="E167">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="M167">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N167">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O167" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P167" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B168">
         <v>3605241996</v>
       </c>
       <c r="C168">
-        <v>5900554201</v>
+        <v>5903303749</v>
       </c>
       <c r="D168">
-        <v>725382952</v>
+        <v>725382939</v>
       </c>
       <c r="E168">
-        <v>30</v>
-      </c>
-      <c r="H168">
-        <v>0</v>
+        <v>34.53</v>
       </c>
       <c r="M168">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N168">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O168" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P168" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B169">
         <v>3605241996</v>
       </c>
       <c r="C169">
-        <v>258448278</v>
+        <v>5901554950</v>
       </c>
       <c r="D169">
-        <v>725403313</v>
+        <v>725382940</v>
       </c>
       <c r="E169">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H169">
-        <v>6</v>
-      </c>
-      <c r="L169">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M169">
-        <v>289</v>
+        <v>34.53</v>
       </c>
       <c r="N169">
-        <v>344.65</v>
+        <v>41.78</v>
       </c>
       <c r="O169" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P169" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B170">
         <v>3605241996</v>
       </c>
       <c r="C170">
-        <v>5900698344</v>
+        <v>5901772091</v>
       </c>
       <c r="D170">
-        <v>725420534</v>
+        <v>725382941</v>
       </c>
       <c r="E170">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="M170">
-        <v>30</v>
+        <v>35.39</v>
       </c>
       <c r="N170">
-        <v>36.299999999999997</v>
+        <v>42.82</v>
       </c>
       <c r="O170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P170" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B171">
         <v>3605241996</v>
       </c>
       <c r="C171">
-        <v>5902401307</v>
+        <v>5902215642</v>
       </c>
       <c r="D171">
-        <v>725420838</v>
+        <v>725382943</v>
       </c>
       <c r="E171">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="M171">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N171">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O171" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P171" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B172">
         <v>3605241996</v>
       </c>
       <c r="C172">
-        <v>5901316859</v>
+        <v>5900951094</v>
       </c>
       <c r="D172">
-        <v>725433979</v>
+        <v>725382944</v>
       </c>
       <c r="E172">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H172">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="M172">
-        <v>275.8</v>
+        <v>34.53</v>
       </c>
       <c r="N172">
-        <v>333.72</v>
+        <v>41.78</v>
       </c>
       <c r="O172" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P172" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B173">
         <v>3605241996</v>
       </c>
       <c r="C173">
-        <v>256474483</v>
+        <v>5904857769</v>
       </c>
       <c r="D173">
-        <v>725434501</v>
+        <v>725382945</v>
       </c>
       <c r="E173">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H173">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M173">
-        <v>45</v>
+        <v>34.53</v>
       </c>
       <c r="N173">
-        <v>54.45</v>
+        <v>41.78</v>
       </c>
       <c r="O173" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="P173" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B174">
         <v>3605241996</v>
       </c>
       <c r="C174">
-        <v>5903354073</v>
+        <v>5904106018</v>
       </c>
       <c r="D174">
-        <v>725504064</v>
+        <v>725382946</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H174">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="M174">
-        <v>97.5</v>
+        <v>34.53</v>
       </c>
       <c r="N174">
-        <v>117.98</v>
+        <v>41.78</v>
       </c>
       <c r="O174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P174" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B175">
         <v>3605241996</v>
       </c>
       <c r="C175">
-        <v>5901262930</v>
+        <v>5900698310</v>
       </c>
       <c r="D175">
-        <v>725536157</v>
+        <v>725382947</v>
       </c>
       <c r="E175">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="M175">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N175">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O175" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P175" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B176">
         <v>3605241996</v>
       </c>
       <c r="C176">
-        <v>5903334918</v>
+        <v>5903462456</v>
       </c>
       <c r="D176">
-        <v>725557493</v>
+        <v>725382948</v>
       </c>
       <c r="E176">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="M176">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N176">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P176" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B177">
         <v>3605241996</v>
       </c>
       <c r="C177">
-        <v>5903821581</v>
+        <v>5904484942</v>
       </c>
       <c r="D177">
-        <v>725557494</v>
+        <v>725382949</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="M177">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="N177">
-        <v>36.299999999999997</v>
+        <v>41.78</v>
       </c>
       <c r="O177" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P177" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B178">
         <v>3605241996</v>
       </c>
       <c r="C178">
-        <v>5903907145</v>
+        <v>5905398072</v>
       </c>
       <c r="D178">
-        <v>725557498</v>
+        <v>725382950</v>
       </c>
       <c r="E178">
-        <v>30</v>
-      </c>
-      <c r="H178">
-        <v>4.5</v>
+        <v>34.53</v>
       </c>
       <c r="M178">
-        <v>34.5</v>
+        <v>34.53</v>
       </c>
       <c r="N178">
-        <v>41.75</v>
+        <v>41.78</v>
       </c>
       <c r="O178" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P178" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B179">
         <v>3605241996</v>
       </c>
       <c r="C179">
-        <v>258499522</v>
+        <v>5905346364</v>
       </c>
       <c r="D179">
-        <v>725586992</v>
+        <v>725382951</v>
       </c>
       <c r="E179">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
       </c>
       <c r="M179">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="N179">
-        <v>36.299999999999997</v>
+        <v>360.71</v>
       </c>
       <c r="O179" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="P179" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B180">
         <v>3605241996</v>
       </c>
       <c r="C180">
-        <v>261494955</v>
+        <v>5900554201</v>
       </c>
       <c r="D180">
-        <v>725587121</v>
+        <v>725382952</v>
       </c>
       <c r="E180">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H180">
-        <v>21.9</v>
+        <v>0</v>
       </c>
       <c r="M180">
-        <v>280.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N180">
-        <v>339.89</v>
+        <v>41.78</v>
       </c>
       <c r="O180" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P180" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B181">
         <v>3605241996</v>
       </c>
       <c r="C181">
-        <v>5901318314</v>
+        <v>258448278</v>
       </c>
       <c r="D181">
-        <v>725725589</v>
+        <v>725403313</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="M181">
-        <v>30</v>
+        <v>313.70999999999998</v>
       </c>
       <c r="N181">
-        <v>36.299999999999997</v>
+        <v>379.59</v>
       </c>
       <c r="O181" t="s">
-        <v>16</v>
-      </c>
-      <c r="P181" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B182">
         <v>3605241996</v>
       </c>
       <c r="C182">
-        <v>256429930</v>
+        <v>5900698344</v>
       </c>
       <c r="D182">
-        <v>725746117</v>
+        <v>725420534</v>
       </c>
       <c r="E182">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H182">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M182">
-        <v>262.89999999999998</v>
+        <v>34.53</v>
       </c>
       <c r="N182">
-        <v>318.11</v>
+        <v>41.78</v>
       </c>
       <c r="O182" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P182" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B183">
         <v>3605241996</v>
       </c>
       <c r="C183">
-        <v>258889845</v>
+        <v>5902401307</v>
       </c>
       <c r="D183">
-        <v>725755879</v>
+        <v>725420838</v>
       </c>
       <c r="E183">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="M183">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N183">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O183" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P183" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B184">
         <v>3605241996</v>
       </c>
       <c r="C184">
-        <v>5904011150</v>
+        <v>5901316859</v>
       </c>
       <c r="D184">
-        <v>725790492</v>
+        <v>725433979</v>
       </c>
       <c r="E184">
-        <v>259</v>
+        <v>298.11</v>
+      </c>
+      <c r="F184">
+        <v>205.79</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M184">
-        <v>262</v>
+        <v>503.9</v>
       </c>
       <c r="N184">
-        <v>317.02</v>
+        <v>609.72</v>
       </c>
       <c r="O184" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P184" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B185">
         <v>3605241996</v>
       </c>
       <c r="C185">
-        <v>5902482028</v>
+        <v>256474483</v>
       </c>
       <c r="D185">
-        <v>725790493</v>
+        <v>725434501</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H185">
-        <v>6.52</v>
+        <v>3.44</v>
       </c>
       <c r="M185">
-        <v>36.520000000000003</v>
+        <v>37.97</v>
       </c>
       <c r="N185">
-        <v>44.19</v>
+        <v>45.94</v>
       </c>
       <c r="O185" t="s">
-        <v>16</v>
-      </c>
-      <c r="P185" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B186">
         <v>3605241996</v>
       </c>
       <c r="C186">
-        <v>5902661033</v>
+        <v>5903354073</v>
       </c>
       <c r="D186">
-        <v>725804324</v>
+        <v>725504064</v>
       </c>
       <c r="E186">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="M186">
-        <v>30</v>
+        <v>69.08</v>
       </c>
       <c r="N186">
-        <v>36.299999999999997</v>
+        <v>83.59</v>
       </c>
       <c r="O186" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P186" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B187">
         <v>3605241996</v>
       </c>
       <c r="C187">
-        <v>5903602680</v>
+        <v>5901262930</v>
       </c>
       <c r="D187">
-        <v>725804516</v>
+        <v>725536157</v>
       </c>
       <c r="E187">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="M187">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N187">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O187" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P187" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B188">
         <v>3605241996</v>
       </c>
       <c r="C188">
-        <v>257269370</v>
+        <v>5903334918</v>
       </c>
       <c r="D188">
-        <v>725892967</v>
+        <v>725557493</v>
       </c>
       <c r="E188">
-        <v>30</v>
-      </c>
-      <c r="H188">
-        <v>184.15</v>
+        <v>34.53</v>
       </c>
       <c r="M188">
-        <v>214.15</v>
+        <v>34.53</v>
       </c>
       <c r="N188">
-        <v>259.12</v>
+        <v>41.78</v>
       </c>
       <c r="O188" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P188" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B189">
         <v>3605241996</v>
       </c>
       <c r="C189">
-        <v>258448273</v>
+        <v>5903821581</v>
       </c>
       <c r="D189">
-        <v>725938465</v>
+        <v>725557494</v>
       </c>
       <c r="E189">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="M189">
-        <v>259</v>
+        <v>34.53</v>
       </c>
       <c r="N189">
-        <v>313.39</v>
+        <v>41.78</v>
       </c>
       <c r="O189" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="P189" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B190">
         <v>3605241996</v>
       </c>
       <c r="C190">
-        <v>5901308152</v>
+        <v>5903907145</v>
       </c>
       <c r="D190">
-        <v>727829866</v>
+        <v>725557498</v>
       </c>
       <c r="E190">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H190">
+        <v>2.58</v>
       </c>
       <c r="M190">
-        <v>30</v>
+        <v>37.11</v>
       </c>
       <c r="N190">
-        <v>36.299999999999997</v>
+        <v>44.9</v>
       </c>
       <c r="O190" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P190" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B191">
         <v>3605241996</v>
       </c>
       <c r="C191">
-        <v>5902397170</v>
+        <v>258499522</v>
       </c>
       <c r="D191">
-        <v>727856388</v>
+        <v>725586992</v>
       </c>
       <c r="E191">
-        <v>30</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <v>29.96</v>
+        <v>34.53</v>
       </c>
       <c r="M191">
-        <v>59.96</v>
+        <v>34.53</v>
       </c>
       <c r="N191">
-        <v>72.55</v>
+        <v>41.78</v>
       </c>
       <c r="O191" t="s">
-        <v>16</v>
-      </c>
-      <c r="P191" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B192">
         <v>3605241996</v>
       </c>
       <c r="C192">
-        <v>5901714542</v>
+        <v>261494955</v>
       </c>
       <c r="D192">
-        <v>727945163</v>
+        <v>725587121</v>
       </c>
       <c r="E192">
-        <v>30</v>
+        <v>298.11</v>
+      </c>
+      <c r="H192">
+        <v>51.49</v>
       </c>
       <c r="M192">
-        <v>30</v>
+        <v>349.6</v>
       </c>
       <c r="N192">
-        <v>36.299999999999997</v>
+        <v>423.02</v>
       </c>
       <c r="O192" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P192" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B193">
         <v>3605241996</v>
       </c>
       <c r="C193">
-        <v>5902220785</v>
+        <v>5901318314</v>
       </c>
       <c r="D193">
-        <v>727952664</v>
+        <v>725725589</v>
       </c>
       <c r="E193">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H193">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="M193">
-        <v>32.25</v>
+        <v>34.53</v>
       </c>
       <c r="N193">
-        <v>39.020000000000003</v>
+        <v>41.78</v>
       </c>
       <c r="O193" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P193" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B194">
         <v>3605241996</v>
       </c>
       <c r="C194">
-        <v>5904736663</v>
+        <v>256429930</v>
       </c>
       <c r="D194">
-        <v>727952812</v>
+        <v>725746117</v>
       </c>
       <c r="E194">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H194">
-        <v>29.7</v>
+        <v>3.45</v>
       </c>
       <c r="M194">
-        <v>288.7</v>
+        <v>301.56</v>
       </c>
       <c r="N194">
-        <v>349.33</v>
+        <v>364.89</v>
       </c>
       <c r="O194" t="s">
-        <v>33</v>
-      </c>
-      <c r="P194" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B195">
         <v>3605241996</v>
       </c>
       <c r="C195">
-        <v>5901786880</v>
+        <v>258889845</v>
       </c>
       <c r="D195">
-        <v>727984149</v>
+        <v>725755879</v>
       </c>
       <c r="E195">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H195">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M195">
-        <v>262</v>
+        <v>298.11</v>
       </c>
       <c r="N195">
-        <v>317.02</v>
+        <v>360.71</v>
       </c>
       <c r="O195" t="s">
-        <v>33</v>
-      </c>
-      <c r="P195" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B196">
         <v>3605241996</v>
       </c>
       <c r="C196">
-        <v>5902295230</v>
+        <v>5904011150</v>
       </c>
       <c r="D196">
-        <v>727984150</v>
+        <v>725790492</v>
       </c>
       <c r="E196">
-        <v>30</v>
+        <v>298.11</v>
       </c>
       <c r="H196">
-        <v>29.74</v>
+        <v>0</v>
       </c>
       <c r="M196">
-        <v>59.74</v>
+        <v>298.11</v>
       </c>
       <c r="N196">
-        <v>72.290000000000006</v>
+        <v>360.71</v>
       </c>
       <c r="O196" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P196" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5221371179</v>
+        <v>5224875924</v>
       </c>
       <c r="B197">
         <v>3605241996</v>
       </c>
       <c r="C197">
-        <v>5904390058</v>
+        <v>5902482028</v>
       </c>
       <c r="D197">
-        <v>728369641</v>
+        <v>725790493</v>
       </c>
       <c r="E197">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M197">
-        <v>30</v>
+        <v>38.93</v>
       </c>
       <c r="N197">
-        <v>36.299999999999997</v>
+        <v>47.11</v>
       </c>
       <c r="O197" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P197" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B198">
-        <v>700002097</v>
+        <v>3605241996</v>
+      </c>
+      <c r="C198">
+        <v>5902661033</v>
+      </c>
+      <c r="D198">
+        <v>725804324</v>
       </c>
       <c r="E198">
-        <v>15.7</v>
+        <v>34.53</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
       </c>
       <c r="M198">
-        <v>15.7</v>
+        <v>34.53</v>
       </c>
       <c r="N198">
-        <v>19</v>
+        <v>41.78</v>
+      </c>
+      <c r="O198" t="s">
+        <v>18</v>
+      </c>
+      <c r="P198" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B199">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C199">
-        <v>5903422220</v>
+        <v>5903602680</v>
+      </c>
+      <c r="D199">
+        <v>725804516</v>
       </c>
       <c r="E199">
-        <v>2010</v>
+        <v>298.11</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
       </c>
       <c r="M199">
-        <v>2010</v>
+        <v>298.11</v>
       </c>
       <c r="N199">
-        <v>2432.1</v>
+        <v>360.71</v>
       </c>
       <c r="O199" t="s">
-        <v>173</v>
+        <v>35</v>
+      </c>
+      <c r="P199" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B200">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C200">
-        <v>5903422220</v>
+        <v>257269370</v>
       </c>
       <c r="D200">
-        <v>55477364</v>
+        <v>725892967</v>
       </c>
       <c r="E200">
-        <v>89</v>
+        <v>34.53</v>
       </c>
       <c r="H200">
-        <v>11.72</v>
+        <v>325.29000000000002</v>
       </c>
       <c r="M200">
-        <v>100.72</v>
+        <v>359.82</v>
       </c>
       <c r="N200">
-        <v>121.87</v>
+        <v>435.38</v>
       </c>
       <c r="O200" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="P200" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B201">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C201">
-        <v>5903422220</v>
+        <v>258448273</v>
       </c>
       <c r="D201">
-        <v>55477365</v>
+        <v>725938465</v>
       </c>
       <c r="E201">
-        <v>89</v>
+        <v>298.11</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="M201">
-        <v>89</v>
+        <v>298.11</v>
       </c>
       <c r="N201">
-        <v>107.69</v>
+        <v>360.71</v>
       </c>
       <c r="O201" t="s">
-        <v>173</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B202">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C202">
-        <v>5903422220</v>
+        <v>5901308152</v>
       </c>
       <c r="D202">
-        <v>55477366</v>
+        <v>727829866</v>
       </c>
       <c r="E202">
-        <v>89</v>
-      </c>
-      <c r="H202">
-        <v>0.85</v>
+        <v>34.53</v>
       </c>
       <c r="M202">
-        <v>89.85</v>
+        <v>34.53</v>
       </c>
       <c r="N202">
-        <v>108.72</v>
+        <v>41.78</v>
       </c>
       <c r="O202" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="P202" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B203">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C203">
-        <v>5903422220</v>
+        <v>5902397170</v>
       </c>
       <c r="D203">
-        <v>55477367</v>
+        <v>727856388</v>
       </c>
       <c r="E203">
-        <v>89</v>
-      </c>
-      <c r="H203">
-        <v>0</v>
+        <v>34.53</v>
+      </c>
+      <c r="K203">
+        <v>32.1</v>
       </c>
       <c r="M203">
-        <v>89</v>
+        <v>66.63</v>
       </c>
       <c r="N203">
-        <v>107.69</v>
+        <v>80.62</v>
       </c>
       <c r="O203" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="P203" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B204">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C204">
-        <v>5903422220</v>
+        <v>5901714542</v>
       </c>
       <c r="D204">
-        <v>55477368</v>
+        <v>727945163</v>
       </c>
       <c r="E204">
-        <v>89</v>
-      </c>
-      <c r="H204">
-        <v>3.4</v>
+        <v>34.53</v>
       </c>
       <c r="M204">
-        <v>92.4</v>
+        <v>34.53</v>
       </c>
       <c r="N204">
-        <v>111.8</v>
+        <v>41.78</v>
       </c>
       <c r="O204" t="s">
-        <v>173</v>
+        <v>18</v>
+      </c>
+      <c r="P204" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B205">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C205">
-        <v>5903645154</v>
+        <v>5902220785</v>
+      </c>
+      <c r="D205">
+        <v>727952664</v>
       </c>
       <c r="E205">
-        <v>3100</v>
+        <v>34.53</v>
+      </c>
+      <c r="H205">
+        <v>5.16</v>
       </c>
       <c r="M205">
-        <v>3100</v>
+        <v>39.69</v>
       </c>
       <c r="N205">
-        <v>3751</v>
+        <v>48.02</v>
       </c>
       <c r="O205" t="s">
-        <v>174</v>
+        <v>18</v>
+      </c>
+      <c r="P205" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B206">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C206">
-        <v>5903645154</v>
+        <v>5904736663</v>
       </c>
       <c r="D206">
-        <v>5547901</v>
+        <v>727952812</v>
       </c>
       <c r="E206">
-        <v>399</v>
+        <v>298.11</v>
       </c>
       <c r="H206">
-        <v>741.62</v>
+        <v>19.5</v>
       </c>
       <c r="M206">
-        <v>1140.6199999999999</v>
+        <v>317.61</v>
       </c>
       <c r="N206">
-        <v>1380.15</v>
+        <v>384.31</v>
       </c>
       <c r="O206" t="s">
-        <v>174</v>
+        <v>35</v>
+      </c>
+      <c r="P206" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B207">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C207">
-        <v>5903645154</v>
+        <v>5901786880</v>
       </c>
       <c r="D207">
-        <v>5547902</v>
+        <v>727984149</v>
       </c>
       <c r="E207">
-        <v>399</v>
+        <v>298.11</v>
       </c>
       <c r="H207">
-        <v>132.94</v>
+        <v>3.9</v>
       </c>
       <c r="M207">
-        <v>531.94000000000005</v>
+        <v>302.01</v>
       </c>
       <c r="N207">
-        <v>643.65</v>
+        <v>365.43</v>
       </c>
       <c r="O207" t="s">
-        <v>174</v>
+        <v>35</v>
+      </c>
+      <c r="P207" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B208">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C208">
-        <v>5903645154</v>
+        <v>5902295230</v>
       </c>
       <c r="D208">
-        <v>5547903</v>
+        <v>727984150</v>
       </c>
       <c r="E208">
-        <v>399</v>
+        <v>34.53</v>
       </c>
       <c r="H208">
-        <v>15.69</v>
+        <v>13.18</v>
       </c>
       <c r="M208">
-        <v>414.69</v>
+        <v>47.71</v>
       </c>
       <c r="N208">
-        <v>501.77</v>
+        <v>57.73</v>
       </c>
       <c r="O208" t="s">
-        <v>174</v>
+        <v>18</v>
+      </c>
+      <c r="P208" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>5221461343</v>
+        <v>5224875924</v>
       </c>
       <c r="B209">
-        <v>700002097</v>
+        <v>3605241996</v>
       </c>
       <c r="C209">
-        <v>5903645154</v>
+        <v>5904390058</v>
       </c>
       <c r="D209">
-        <v>5547904</v>
+        <v>728369641</v>
       </c>
       <c r="E209">
-        <v>399</v>
+        <v>34.53</v>
       </c>
       <c r="H209">
-        <v>65.77</v>
+        <v>0</v>
       </c>
       <c r="M209">
-        <v>464.77</v>
+        <v>34.53</v>
       </c>
       <c r="N209">
-        <v>562.37</v>
+        <v>41.78</v>
       </c>
       <c r="O209" t="s">
+        <v>18</v>
+      </c>
+      <c r="P209" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B210">
         <v>3605333712</v>
       </c>
       <c r="E210">
-        <v>15.7</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="M210">
-        <v>15.7</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="N210">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B211">
         <v>3605333712</v>
@@ -7866,21 +7855,24 @@
         <v>601202268</v>
       </c>
       <c r="E211">
-        <v>30</v>
+        <v>34.53</v>
+      </c>
+      <c r="H211">
+        <v>1.72</v>
       </c>
       <c r="M211">
-        <v>30</v>
+        <v>36.25</v>
       </c>
       <c r="N211">
-        <v>36.299999999999997</v>
+        <v>43.86</v>
       </c>
       <c r="O211" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B212">
         <v>3605333712</v>
@@ -7892,24 +7884,24 @@
         <v>607017634</v>
       </c>
       <c r="E212">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H212">
-        <v>15.6</v>
+        <v>7.8</v>
       </c>
       <c r="M212">
-        <v>274.60000000000002</v>
+        <v>305.91000000000003</v>
       </c>
       <c r="N212">
-        <v>332.27</v>
+        <v>370.15</v>
       </c>
       <c r="O212" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B213">
         <v>3605333712</v>
@@ -7921,19 +7913,19 @@
         <v>724263972</v>
       </c>
       <c r="E213">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H213">
         <v>0</v>
       </c>
       <c r="M213">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="N213">
-        <v>313.39</v>
+        <v>360.71</v>
       </c>
       <c r="O213" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P213" t="s">
         <v>175</v>
@@ -7941,7 +7933,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B214">
         <v>3605333712</v>
@@ -7953,19 +7945,19 @@
         <v>724283775</v>
       </c>
       <c r="E214">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H214">
-        <v>9.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="M214">
-        <v>268.3</v>
+        <v>298.11</v>
       </c>
       <c r="N214">
-        <v>324.64</v>
+        <v>360.71</v>
       </c>
       <c r="O214" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P214" t="s">
         <v>176</v>
@@ -7973,7 +7965,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B215">
         <v>3605333712</v>
@@ -7985,19 +7977,19 @@
         <v>724284413</v>
       </c>
       <c r="E215">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H215">
         <v>0</v>
       </c>
       <c r="M215">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="N215">
-        <v>313.39</v>
+        <v>360.71</v>
       </c>
       <c r="O215" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P215" t="s">
         <v>177</v>
@@ -8005,7 +7997,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B216">
         <v>3605333712</v>
@@ -8017,19 +8009,19 @@
         <v>724284801</v>
       </c>
       <c r="E216">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H216">
         <v>0</v>
       </c>
       <c r="M216">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="N216">
-        <v>313.39</v>
+        <v>360.71</v>
       </c>
       <c r="O216" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P216" t="s">
         <v>178</v>
@@ -8037,7 +8029,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B217">
         <v>3605333712</v>
@@ -8049,22 +8041,22 @@
         <v>724285677</v>
       </c>
       <c r="E217">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H217">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="L217">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="M217">
-        <v>310.89999999999998</v>
+        <v>310.11</v>
       </c>
       <c r="N217">
-        <v>366.11</v>
+        <v>372.71</v>
       </c>
       <c r="O217" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P217" t="s">
         <v>179</v>
@@ -8072,7 +8064,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B218">
         <v>3605333712</v>
@@ -8084,19 +8076,19 @@
         <v>724285678</v>
       </c>
       <c r="E218">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="M218">
-        <v>259</v>
+        <v>313.70999999999998</v>
       </c>
       <c r="N218">
-        <v>313.39</v>
+        <v>379.59</v>
       </c>
       <c r="O218" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P218" t="s">
         <v>180</v>
@@ -8104,7 +8096,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B219">
         <v>3605333712</v>
@@ -8116,19 +8108,19 @@
         <v>724372064</v>
       </c>
       <c r="E219">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H219">
-        <v>12.5</v>
+        <v>6.31</v>
       </c>
       <c r="M219">
-        <v>42.5</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="N219">
-        <v>51.43</v>
+        <v>49.42</v>
       </c>
       <c r="O219" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P219" t="s">
         <v>181</v>
@@ -8136,7 +8128,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B220">
         <v>3605333712</v>
@@ -8148,19 +8140,19 @@
         <v>724474330</v>
       </c>
       <c r="E220">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H220">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>262.89999999999998</v>
+        <v>298.11</v>
       </c>
       <c r="N220">
-        <v>318.11</v>
+        <v>360.71</v>
       </c>
       <c r="O220" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P220" t="s">
         <v>182</v>
@@ -8168,7 +8160,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B221">
         <v>3605333712</v>
@@ -8180,19 +8172,19 @@
         <v>724510831</v>
       </c>
       <c r="E221">
-        <v>30</v>
+        <v>34.53</v>
       </c>
       <c r="H221">
-        <v>2.25</v>
+        <v>6.52</v>
       </c>
       <c r="M221">
-        <v>32.25</v>
+        <v>41.05</v>
       </c>
       <c r="N221">
-        <v>39.020000000000003</v>
+        <v>49.67</v>
       </c>
       <c r="O221" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P221" t="s">
         <v>183</v>
@@ -8200,7 +8192,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>5221385708</v>
+        <v>5224896736</v>
       </c>
       <c r="B222">
         <v>3605333712</v>
@@ -8212,19 +8204,19 @@
         <v>724510853</v>
       </c>
       <c r="E222">
-        <v>259</v>
+        <v>298.11</v>
       </c>
       <c r="H222">
-        <v>7.8</v>
+        <v>39</v>
       </c>
       <c r="M222">
-        <v>266.8</v>
+        <v>337.11</v>
       </c>
       <c r="N222">
-        <v>322.83</v>
+        <v>407.9</v>
       </c>
       <c r="O222" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P222" t="s">
         <v>184</v>
